--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97026C65-ED3F-4C8B-9C07-D13C6FF86BAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4575"/>
+    <workbookView xWindow="-5920" yWindow="-760" windowWidth="27510" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,6 +21,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="68">
   <si>
     <t>Aufwand SOLL</t>
   </si>
@@ -68,12 +70,6 @@
   </si>
   <si>
     <t>(Sommerferien)</t>
-  </si>
-  <si>
-    <t>09.06.20</t>
-  </si>
-  <si>
-    <t>16.06.20</t>
   </si>
   <si>
     <t>23.06.20</t>
@@ -137,9 +133,6 @@
   </si>
   <si>
     <t>19.01.21</t>
-  </si>
-  <si>
-    <t>26.01.21</t>
   </si>
   <si>
     <t>Aktivitäten</t>
@@ -255,11 +248,17 @@
   <si>
     <t>Zeitplan Tic-Tac-Toe Multiplayer</t>
   </si>
+  <si>
+    <t>08.06.20</t>
+  </si>
+  <si>
+    <t>15.06.20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -560,6 +559,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -569,10 +580,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -581,33 +604,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -884,48 +883,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:CX64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C2:CT64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="102" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" customWidth="1"/>
+    <col min="6" max="6" width="4.7265625" customWidth="1"/>
+    <col min="7" max="98" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="42" t="s">
         <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" t="s">
         <v>5</v>
       </c>
@@ -933,361 +932,347 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="39" t="s">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="32" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32" t="s">
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32" t="s">
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32" t="s">
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32" t="s">
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32" t="s">
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
+      <c r="AM4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32" t="s">
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29"/>
+      <c r="AQ4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32" t="s">
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29"/>
+      <c r="AU4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32" t="s">
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32" t="s">
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
-      <c r="AX4" s="32"/>
-      <c r="AY4" s="32" t="s">
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AZ4" s="32"/>
-      <c r="BA4" s="32"/>
-      <c r="BB4" s="32"/>
-      <c r="BC4" s="32" t="s">
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32" t="s">
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="32"/>
-      <c r="BK4" s="32" t="s">
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="29"/>
+      <c r="BR4" s="29"/>
+      <c r="BS4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="BL4" s="32"/>
-      <c r="BM4" s="32"/>
-      <c r="BN4" s="32"/>
-      <c r="BO4" s="32" t="s">
+      <c r="BT4" s="29"/>
+      <c r="BU4" s="29"/>
+      <c r="BV4" s="29"/>
+      <c r="BW4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="BP4" s="32"/>
-      <c r="BQ4" s="32"/>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="32" t="s">
+      <c r="BX4" s="29"/>
+      <c r="BY4" s="29"/>
+      <c r="BZ4" s="29"/>
+      <c r="CA4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="BT4" s="32"/>
-      <c r="BU4" s="32"/>
-      <c r="BV4" s="32"/>
-      <c r="BW4" s="32" t="s">
+      <c r="CB4" s="29"/>
+      <c r="CC4" s="29"/>
+      <c r="CD4" s="29"/>
+      <c r="CE4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="BX4" s="32"/>
-      <c r="BY4" s="32"/>
-      <c r="BZ4" s="32"/>
-      <c r="CA4" s="32" t="s">
+      <c r="CF4" s="29"/>
+      <c r="CG4" s="29"/>
+      <c r="CH4" s="29"/>
+      <c r="CI4" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="CB4" s="32"/>
-      <c r="CC4" s="32"/>
-      <c r="CD4" s="32"/>
-      <c r="CE4" s="32" t="s">
+      <c r="CJ4" s="29"/>
+      <c r="CK4" s="29"/>
+      <c r="CL4" s="29"/>
+      <c r="CM4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="CF4" s="32"/>
-      <c r="CG4" s="32"/>
-      <c r="CH4" s="32"/>
-      <c r="CI4" s="32" t="s">
+      <c r="CN4" s="29"/>
+      <c r="CO4" s="29"/>
+      <c r="CP4" s="29"/>
+      <c r="CQ4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="CJ4" s="32"/>
-      <c r="CK4" s="32"/>
-      <c r="CL4" s="32"/>
-      <c r="CM4" s="32" t="s">
+      <c r="CR4" s="29"/>
+      <c r="CS4" s="29"/>
+      <c r="CT4" s="29"/>
+    </row>
+    <row r="5" spans="3:98" x14ac:dyDescent="0.35">
+      <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="CN4" s="32"/>
-      <c r="CO4" s="32"/>
-      <c r="CP4" s="32"/>
-      <c r="CQ4" s="32" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="CR4" s="32"/>
-      <c r="CS4" s="32"/>
-      <c r="CT4" s="32"/>
-      <c r="CU4" s="32" t="s">
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="CV4" s="32"/>
-      <c r="CW4" s="32"/>
-      <c r="CX4" s="32"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="30"/>
+      <c r="AM5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN5" s="30"/>
+      <c r="AO5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP5" s="30"/>
+      <c r="AQ5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR5" s="30"/>
+      <c r="AS5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT5" s="30"/>
+      <c r="AU5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV5" s="30"/>
+      <c r="AW5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="AX5" s="30"/>
+      <c r="AY5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AZ5" s="30"/>
+      <c r="BA5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BB5" s="30"/>
+      <c r="BC5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BD5" s="30"/>
+      <c r="BE5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BF5" s="30"/>
+      <c r="BG5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BH5" s="30"/>
+      <c r="BI5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BJ5" s="30"/>
+      <c r="BK5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BL5" s="30"/>
+      <c r="BM5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BV5" s="30"/>
+      <c r="BW5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF5" s="30"/>
+      <c r="CG5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="CH5" s="30"/>
+      <c r="CI5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CJ5" s="30"/>
+      <c r="CK5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="CL5" s="30"/>
+      <c r="CM5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CN5" s="30"/>
+      <c r="CO5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="CP5" s="30"/>
+      <c r="CQ5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="CR5" s="30"/>
+      <c r="CS5" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="CT5" s="30"/>
     </row>
-    <row r="5" spans="3:102" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+    <row r="6" spans="3:98" x14ac:dyDescent="0.35">
+      <c r="C6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD5" s="33"/>
-      <c r="BE5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BF5" s="33"/>
-      <c r="BG5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="BH5" s="33"/>
-      <c r="BI5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BJ5" s="33"/>
-      <c r="BK5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL5" s="33"/>
-      <c r="BM5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BN5" s="33"/>
-      <c r="BO5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="BP5" s="33"/>
-      <c r="BQ5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR5" s="33"/>
-      <c r="BS5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="BT5" s="33"/>
-      <c r="BU5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BV5" s="33"/>
-      <c r="BW5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="BX5" s="33"/>
-      <c r="BY5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="BZ5" s="33"/>
-      <c r="CA5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="CB5" s="33"/>
-      <c r="CC5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="CD5" s="33"/>
-      <c r="CE5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="CF5" s="33"/>
-      <c r="CG5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="CH5" s="33"/>
-      <c r="CI5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="CJ5" s="33"/>
-      <c r="CK5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="CL5" s="33"/>
-      <c r="CM5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="CN5" s="33"/>
-      <c r="CO5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="CP5" s="33"/>
-      <c r="CQ5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="CR5" s="33"/>
-      <c r="CS5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT5" s="33"/>
-      <c r="CU5" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="CV5" s="33"/>
-      <c r="CW5" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="CX5" s="33"/>
-    </row>
-    <row r="6" spans="3:102" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1384,24 +1369,20 @@
       <c r="CR6" s="2"/>
       <c r="CS6" s="2"/>
       <c r="CT6" s="3"/>
-      <c r="CU6" s="2"/>
-      <c r="CV6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="3"/>
     </row>
-    <row r="7" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="37">
-        <f t="shared" ref="D7" si="0">SUM(G7:CX7)</f>
+    <row r="7" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="36">
+        <f>SUM(G7:CT7)</f>
         <v>1</v>
       </c>
-      <c r="E7" s="37">
-        <f t="shared" ref="E7" si="1">SUM(G8:CX8)</f>
+      <c r="E7" s="36">
+        <f>SUM(G8:CT8)</f>
         <v>1</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1499,16 +1480,12 @@
       <c r="CR7" s="10"/>
       <c r="CS7" s="10"/>
       <c r="CT7" s="11"/>
-      <c r="CU7" s="12"/>
-      <c r="CV7" s="10"/>
-      <c r="CW7" s="10"/>
-      <c r="CX7" s="11"/>
     </row>
-    <row r="8" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="36"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+    <row r="8" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="39"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="13">
         <v>1</v>
       </c>
@@ -1603,24 +1580,20 @@
       <c r="CR8" s="14"/>
       <c r="CS8" s="14"/>
       <c r="CT8" s="15"/>
-      <c r="CU8" s="16"/>
-      <c r="CV8" s="14"/>
-      <c r="CW8" s="14"/>
-      <c r="CX8" s="15"/>
     </row>
-    <row r="9" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="37">
-        <f t="shared" ref="D9" si="2">SUM(G9:CX9)</f>
+    <row r="9" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="36">
+        <f>SUM(G9:CT9)</f>
         <v>1</v>
       </c>
-      <c r="E9" s="37">
-        <f t="shared" ref="E9" si="3">SUM(G10:CX10)</f>
+      <c r="E9" s="36">
+        <f>SUM(G10:CT10)</f>
         <v>2</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>-1</v>
       </c>
@@ -1718,16 +1691,12 @@
       <c r="CR9" s="18"/>
       <c r="CS9" s="18"/>
       <c r="CT9" s="19"/>
-      <c r="CU9" s="20"/>
-      <c r="CV9" s="18"/>
-      <c r="CW9" s="18"/>
-      <c r="CX9" s="19"/>
     </row>
-    <row r="10" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="36"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
+    <row r="10" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="39"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="13">
         <v>1</v>
       </c>
@@ -1824,24 +1793,20 @@
       <c r="CR10" s="14"/>
       <c r="CS10" s="14"/>
       <c r="CT10" s="15"/>
-      <c r="CU10" s="16"/>
-      <c r="CV10" s="14"/>
-      <c r="CW10" s="14"/>
-      <c r="CX10" s="15"/>
     </row>
-    <row r="11" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="37">
-        <f t="shared" ref="D11" si="4">SUM(G11:CX11)</f>
+    <row r="11" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="36">
+        <f>SUM(G11:CT11)</f>
         <v>0.5</v>
       </c>
-      <c r="E11" s="37">
-        <f t="shared" ref="E11" si="5">SUM(G12:CX12)</f>
+      <c r="E11" s="36">
+        <f>SUM(G12:CT12)</f>
         <v>1</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>-1.5</v>
       </c>
@@ -1939,16 +1904,12 @@
       <c r="CR11" s="18"/>
       <c r="CS11" s="18"/>
       <c r="CT11" s="19"/>
-      <c r="CU11" s="20"/>
-      <c r="CV11" s="18"/>
-      <c r="CW11" s="18"/>
-      <c r="CX11" s="19"/>
     </row>
-    <row r="12" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="36"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
+    <row r="12" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="16"/>
       <c r="H12" s="21">
         <v>1</v>
@@ -2043,24 +2004,20 @@
       <c r="CR12" s="14"/>
       <c r="CS12" s="14"/>
       <c r="CT12" s="15"/>
-      <c r="CU12" s="16"/>
-      <c r="CV12" s="14"/>
-      <c r="CW12" s="14"/>
-      <c r="CX12" s="15"/>
     </row>
-    <row r="13" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="37">
-        <f t="shared" ref="D13" si="6">SUM(G13:CX13)</f>
+    <row r="13" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="36">
+        <f>SUM(G13:CT13)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="37">
-        <f t="shared" ref="E13" si="7">SUM(G14:CX14)</f>
+      <c r="E13" s="36">
+        <f>SUM(G14:CT14)</f>
         <v>1</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>-1.5</v>
       </c>
@@ -2158,16 +2115,12 @@
       <c r="CR13" s="18"/>
       <c r="CS13" s="18"/>
       <c r="CT13" s="19"/>
-      <c r="CU13" s="20"/>
-      <c r="CV13" s="18"/>
-      <c r="CW13" s="18"/>
-      <c r="CX13" s="19"/>
     </row>
-    <row r="14" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="36"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
+    <row r="14" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="16"/>
       <c r="H14" s="14"/>
       <c r="I14" s="21">
@@ -2262,24 +2215,20 @@
       <c r="CR14" s="14"/>
       <c r="CS14" s="14"/>
       <c r="CT14" s="15"/>
-      <c r="CU14" s="16"/>
-      <c r="CV14" s="14"/>
-      <c r="CW14" s="14"/>
-      <c r="CX14" s="15"/>
     </row>
-    <row r="15" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="37">
-        <f t="shared" ref="D15" si="8">SUM(G15:CX15)</f>
+    <row r="15" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="36">
+        <f>SUM(G15:CT15)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="37">
-        <f t="shared" ref="E15" si="9">SUM(G16:CX16)</f>
+      <c r="E15" s="36">
+        <f>SUM(G16:CT16)</f>
         <v>1</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>-1.5</v>
       </c>
@@ -2379,16 +2328,12 @@
       <c r="CR15" s="18"/>
       <c r="CS15" s="18"/>
       <c r="CT15" s="19"/>
-      <c r="CU15" s="20"/>
-      <c r="CV15" s="18"/>
-      <c r="CW15" s="18"/>
-      <c r="CX15" s="19"/>
     </row>
-    <row r="16" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="36"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
+    <row r="16" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="39"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="16"/>
       <c r="H16" s="14"/>
       <c r="I16" s="21">
@@ -2483,24 +2428,20 @@
       <c r="CR16" s="14"/>
       <c r="CS16" s="14"/>
       <c r="CT16" s="15"/>
-      <c r="CU16" s="16"/>
-      <c r="CV16" s="14"/>
-      <c r="CW16" s="14"/>
-      <c r="CX16" s="15"/>
     </row>
-    <row r="17" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="37">
-        <f>SUM(G17:CX17)</f>
+    <row r="17" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="36">
+        <f>SUM(G17:CT17)</f>
         <v>3.5</v>
       </c>
-      <c r="E17" s="37">
-        <f>SUM(G18:CX18)</f>
+      <c r="E17" s="36">
+        <f>SUM(G18:CT18)</f>
         <v>4</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>-2</v>
       </c>
@@ -2600,16 +2541,12 @@
       <c r="CR17" s="18"/>
       <c r="CS17" s="18"/>
       <c r="CT17" s="19"/>
-      <c r="CU17" s="20"/>
-      <c r="CV17" s="18"/>
-      <c r="CW17" s="18"/>
-      <c r="CX17" s="19"/>
     </row>
-    <row r="18" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+    <row r="18" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="39"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="12"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2706,14 +2643,10 @@
       <c r="CR18" s="10"/>
       <c r="CS18" s="10"/>
       <c r="CT18" s="11"/>
-      <c r="CU18" s="12"/>
-      <c r="CV18" s="10"/>
-      <c r="CW18" s="10"/>
-      <c r="CX18" s="11"/>
     </row>
-    <row r="19" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2810,24 +2743,20 @@
       <c r="CR19" s="26"/>
       <c r="CS19" s="26"/>
       <c r="CT19" s="27"/>
-      <c r="CU19" s="26"/>
-      <c r="CV19" s="26"/>
-      <c r="CW19" s="26"/>
-      <c r="CX19" s="27"/>
     </row>
-    <row r="20" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="37">
-        <f t="shared" ref="D20" si="10">SUM(G20:CX20)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="37">
-        <f t="shared" ref="E20" si="11">SUM(G21:CX21)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="37">
+    <row r="20" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="36">
+        <f>SUM(G20:CT20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="36">
+        <f>SUM(G21:CT21)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="36">
         <f>SUM($D$7:D20)-SUM($E$7:E20)</f>
         <v>-2</v>
       </c>
@@ -2923,16 +2852,12 @@
       <c r="CR20" s="10"/>
       <c r="CS20" s="10"/>
       <c r="CT20" s="11"/>
-      <c r="CU20" s="12"/>
-      <c r="CV20" s="10"/>
-      <c r="CW20" s="10"/>
-      <c r="CX20" s="11"/>
     </row>
-    <row r="21" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="41"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+    <row r="21" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="38"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
       <c r="G21" s="16"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
@@ -3025,24 +2950,20 @@
       <c r="CR21" s="14"/>
       <c r="CS21" s="14"/>
       <c r="CT21" s="15"/>
-      <c r="CU21" s="16"/>
-      <c r="CV21" s="14"/>
-      <c r="CW21" s="14"/>
-      <c r="CX21" s="15"/>
     </row>
-    <row r="22" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="37">
-        <f t="shared" ref="D22" si="12">SUM(G22:CX22)</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="37">
-        <f t="shared" ref="E22" si="13">SUM(G23:CX23)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="37">
+    <row r="22" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="36">
+        <f>SUM(G22:CT22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="36">
+        <f>SUM(G23:CT23)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="36">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>-2</v>
       </c>
@@ -3138,16 +3059,12 @@
       <c r="CR22" s="18"/>
       <c r="CS22" s="18"/>
       <c r="CT22" s="19"/>
-      <c r="CU22" s="20"/>
-      <c r="CV22" s="18"/>
-      <c r="CW22" s="18"/>
-      <c r="CX22" s="19"/>
     </row>
-    <row r="23" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="41"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
+    <row r="23" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="38"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="16"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
@@ -3240,24 +3157,20 @@
       <c r="CR23" s="14"/>
       <c r="CS23" s="14"/>
       <c r="CT23" s="15"/>
-      <c r="CU23" s="16"/>
-      <c r="CV23" s="14"/>
-      <c r="CW23" s="14"/>
-      <c r="CX23" s="15"/>
     </row>
-    <row r="24" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="37">
-        <f t="shared" ref="D24" si="14">SUM(G24:CX24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="37">
-        <f t="shared" ref="E24" si="15">SUM(G25:CX25)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="37">
+    <row r="24" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="36">
+        <f>SUM(G24:CT24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="36">
+        <f>SUM(G25:CT25)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="36">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>-2</v>
       </c>
@@ -3353,16 +3266,12 @@
       <c r="CR24" s="18"/>
       <c r="CS24" s="18"/>
       <c r="CT24" s="19"/>
-      <c r="CU24" s="20"/>
-      <c r="CV24" s="18"/>
-      <c r="CW24" s="18"/>
-      <c r="CX24" s="19"/>
     </row>
-    <row r="25" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="41"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+    <row r="25" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="16"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
@@ -3455,24 +3364,20 @@
       <c r="CR25" s="14"/>
       <c r="CS25" s="14"/>
       <c r="CT25" s="15"/>
-      <c r="CU25" s="16"/>
-      <c r="CV25" s="14"/>
-      <c r="CW25" s="14"/>
-      <c r="CX25" s="15"/>
     </row>
-    <row r="26" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="37">
-        <f t="shared" ref="D26" si="16">SUM(G26:CX26)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="37">
-        <f t="shared" ref="E26" si="17">SUM(G27:CX27)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="37">
+    <row r="26" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="36">
+        <f>SUM(G26:CT26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="36">
+        <f>SUM(G27:CT27)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="36">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>-2</v>
       </c>
@@ -3568,16 +3473,12 @@
       <c r="CR26" s="18"/>
       <c r="CS26" s="18"/>
       <c r="CT26" s="19"/>
-      <c r="CU26" s="20"/>
-      <c r="CV26" s="18"/>
-      <c r="CW26" s="18"/>
-      <c r="CX26" s="19"/>
     </row>
-    <row r="27" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="41"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+    <row r="27" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="38"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="16"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
@@ -3670,24 +3571,20 @@
       <c r="CR27" s="14"/>
       <c r="CS27" s="14"/>
       <c r="CT27" s="15"/>
-      <c r="CU27" s="16"/>
-      <c r="CV27" s="14"/>
-      <c r="CW27" s="14"/>
-      <c r="CX27" s="15"/>
     </row>
-    <row r="28" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="37">
-        <f t="shared" ref="D28" si="18">SUM(G28:CX28)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="37">
-        <f t="shared" ref="E28" si="19">SUM(G29:CX29)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="37">
+    <row r="28" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="36">
+        <f>SUM(G28:CT28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="36">
+        <f>SUM(G29:CT29)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
         <v>-2</v>
       </c>
@@ -3783,16 +3680,12 @@
       <c r="CR28" s="18"/>
       <c r="CS28" s="18"/>
       <c r="CT28" s="19"/>
-      <c r="CU28" s="20"/>
-      <c r="CV28" s="18"/>
-      <c r="CW28" s="18"/>
-      <c r="CX28" s="19"/>
     </row>
-    <row r="29" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="41"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
+    <row r="29" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="38"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="16"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
@@ -3885,24 +3778,20 @@
       <c r="CR29" s="14"/>
       <c r="CS29" s="14"/>
       <c r="CT29" s="15"/>
-      <c r="CU29" s="16"/>
-      <c r="CV29" s="14"/>
-      <c r="CW29" s="14"/>
-      <c r="CX29" s="15"/>
     </row>
-    <row r="30" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="37">
-        <f t="shared" ref="D30" si="20">SUM(G30:CX30)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="37">
-        <f t="shared" ref="E30" si="21">SUM(G31:CX31)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="37">
+    <row r="30" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="36">
+        <f>SUM(G30:CT30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="36">
+        <f>SUM(G31:CT31)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="36">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
         <v>-2</v>
       </c>
@@ -3998,16 +3887,12 @@
       <c r="CR30" s="18"/>
       <c r="CS30" s="18"/>
       <c r="CT30" s="19"/>
-      <c r="CU30" s="20"/>
-      <c r="CV30" s="18"/>
-      <c r="CW30" s="18"/>
-      <c r="CX30" s="19"/>
     </row>
-    <row r="31" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="41"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
+    <row r="31" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="38"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="16"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
@@ -4100,24 +3985,20 @@
       <c r="CR31" s="14"/>
       <c r="CS31" s="14"/>
       <c r="CT31" s="15"/>
-      <c r="CU31" s="16"/>
-      <c r="CV31" s="14"/>
-      <c r="CW31" s="14"/>
-      <c r="CX31" s="15"/>
     </row>
-    <row r="32" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="37">
-        <f>SUM(G32:CX32)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="37">
-        <f>SUM(G33:CX33)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="37">
+    <row r="32" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="36">
+        <f>SUM(G32:CT32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="36">
+        <f>SUM(G33:CT33)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="36">
         <f>SUM($D$7:D32)-SUM($E$7:E32)</f>
         <v>-2</v>
       </c>
@@ -4213,16 +4094,12 @@
       <c r="CR32" s="18"/>
       <c r="CS32" s="18"/>
       <c r="CT32" s="19"/>
-      <c r="CU32" s="20"/>
-      <c r="CV32" s="18"/>
-      <c r="CW32" s="18"/>
-      <c r="CX32" s="19"/>
     </row>
-    <row r="33" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="41"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+    <row r="33" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="38"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
       <c r="G33" s="12"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -4315,14 +4192,10 @@
       <c r="CR33" s="10"/>
       <c r="CS33" s="10"/>
       <c r="CT33" s="11"/>
-      <c r="CU33" s="12"/>
-      <c r="CV33" s="10"/>
-      <c r="CW33" s="10"/>
-      <c r="CX33" s="11"/>
     </row>
-    <row r="34" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C34" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -4419,24 +4292,20 @@
       <c r="CR34" s="26"/>
       <c r="CS34" s="26"/>
       <c r="CT34" s="27"/>
-      <c r="CU34" s="26"/>
-      <c r="CV34" s="26"/>
-      <c r="CW34" s="26"/>
-      <c r="CX34" s="27"/>
     </row>
-    <row r="35" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="37">
-        <f t="shared" ref="D35" si="22">SUM(G35:CX35)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="37">
-        <f t="shared" ref="E35" si="23">SUM(G36:CX36)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="37">
+    <row r="35" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="36">
+        <f>SUM(G35:CT35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="36">
+        <f>SUM(G36:CT36)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="36">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
         <v>-2</v>
       </c>
@@ -4532,16 +4401,12 @@
       <c r="CR35" s="10"/>
       <c r="CS35" s="10"/>
       <c r="CT35" s="11"/>
-      <c r="CU35" s="12"/>
-      <c r="CV35" s="10"/>
-      <c r="CW35" s="10"/>
-      <c r="CX35" s="11"/>
     </row>
-    <row r="36" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="36"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+    <row r="36" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="39"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="16"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
@@ -4634,24 +4499,20 @@
       <c r="CR36" s="14"/>
       <c r="CS36" s="14"/>
       <c r="CT36" s="15"/>
-      <c r="CU36" s="16"/>
-      <c r="CV36" s="14"/>
-      <c r="CW36" s="14"/>
-      <c r="CX36" s="15"/>
     </row>
-    <row r="37" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D37" s="37">
-        <f t="shared" ref="D37" si="24">SUM(G37:CX37)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="37">
-        <f t="shared" ref="E37" si="25">SUM(G38:CX38)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="37">
+    <row r="37" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="36">
+        <f>SUM(G37:CT37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="36">
+        <f>SUM(G38:CT38)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="36">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
         <v>-2</v>
       </c>
@@ -4747,16 +4608,12 @@
       <c r="CR37" s="18"/>
       <c r="CS37" s="18"/>
       <c r="CT37" s="19"/>
-      <c r="CU37" s="20"/>
-      <c r="CV37" s="18"/>
-      <c r="CW37" s="18"/>
-      <c r="CX37" s="19"/>
     </row>
-    <row r="38" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="36"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+    <row r="38" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="39"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="16"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
@@ -4849,24 +4706,20 @@
       <c r="CR38" s="14"/>
       <c r="CS38" s="14"/>
       <c r="CT38" s="15"/>
-      <c r="CU38" s="16"/>
-      <c r="CV38" s="14"/>
-      <c r="CW38" s="14"/>
-      <c r="CX38" s="15"/>
     </row>
-    <row r="39" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="37">
-        <f t="shared" ref="D39" si="26">SUM(G39:CX39)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="37">
-        <f t="shared" ref="E39" si="27">SUM(G40:CX40)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="37">
+    <row r="39" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="36">
+        <f>SUM(G39:CT39)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="36">
+        <f>SUM(G40:CT40)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="36">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
         <v>-2</v>
       </c>
@@ -4962,16 +4815,12 @@
       <c r="CR39" s="18"/>
       <c r="CS39" s="18"/>
       <c r="CT39" s="19"/>
-      <c r="CU39" s="20"/>
-      <c r="CV39" s="18"/>
-      <c r="CW39" s="18"/>
-      <c r="CX39" s="19"/>
     </row>
-    <row r="40" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="36"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+    <row r="40" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="39"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="16"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
@@ -5064,24 +4913,20 @@
       <c r="CR40" s="14"/>
       <c r="CS40" s="14"/>
       <c r="CT40" s="15"/>
-      <c r="CU40" s="16"/>
-      <c r="CV40" s="14"/>
-      <c r="CW40" s="14"/>
-      <c r="CX40" s="15"/>
     </row>
-    <row r="41" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="37">
-        <f t="shared" ref="D41" si="28">SUM(G41:CX41)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="37">
-        <f t="shared" ref="E41" si="29">SUM(G42:CX42)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="37">
+    <row r="41" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="36">
+        <f>SUM(G41:CT41)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="36">
+        <f>SUM(G42:CT42)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="36">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
         <v>-2</v>
       </c>
@@ -5177,16 +5022,12 @@
       <c r="CR41" s="18"/>
       <c r="CS41" s="18"/>
       <c r="CT41" s="19"/>
-      <c r="CU41" s="20"/>
-      <c r="CV41" s="18"/>
-      <c r="CW41" s="18"/>
-      <c r="CX41" s="19"/>
     </row>
-    <row r="42" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="36"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
+    <row r="42" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="39"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="16"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
@@ -5279,24 +5120,20 @@
       <c r="CR42" s="14"/>
       <c r="CS42" s="14"/>
       <c r="CT42" s="15"/>
-      <c r="CU42" s="16"/>
-      <c r="CV42" s="14"/>
-      <c r="CW42" s="14"/>
-      <c r="CX42" s="15"/>
     </row>
-    <row r="43" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D43" s="37">
-        <f t="shared" ref="D43" si="30">SUM(G43:CX43)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="37">
-        <f t="shared" ref="E43" si="31">SUM(G44:CX44)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="37">
+    <row r="43" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="36">
+        <f>SUM(G43:CT43)</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="36">
+        <f>SUM(G44:CT44)</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="36">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
         <v>-2</v>
       </c>
@@ -5392,16 +5229,12 @@
       <c r="CR43" s="18"/>
       <c r="CS43" s="18"/>
       <c r="CT43" s="19"/>
-      <c r="CU43" s="20"/>
-      <c r="CV43" s="18"/>
-      <c r="CW43" s="18"/>
-      <c r="CX43" s="19"/>
     </row>
-    <row r="44" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="36"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
+    <row r="44" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="39"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="16"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
@@ -5494,24 +5327,20 @@
       <c r="CR44" s="14"/>
       <c r="CS44" s="14"/>
       <c r="CT44" s="15"/>
-      <c r="CU44" s="16"/>
-      <c r="CV44" s="14"/>
-      <c r="CW44" s="14"/>
-      <c r="CX44" s="15"/>
     </row>
-    <row r="45" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="37">
-        <f t="shared" ref="D45" si="32">SUM(G45:CX45)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="37">
-        <f t="shared" ref="E45" si="33">SUM(G46:CX46)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="37">
+    <row r="45" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="36">
+        <f>SUM(G45:CT45)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="36">
+        <f>SUM(G46:CT46)</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="36">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
         <v>-2</v>
       </c>
@@ -5607,16 +5436,12 @@
       <c r="CR45" s="18"/>
       <c r="CS45" s="18"/>
       <c r="CT45" s="19"/>
-      <c r="CU45" s="20"/>
-      <c r="CV45" s="18"/>
-      <c r="CW45" s="18"/>
-      <c r="CX45" s="19"/>
     </row>
-    <row r="46" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="36"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
+    <row r="46" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="39"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="16"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
@@ -5709,24 +5534,20 @@
       <c r="CR46" s="14"/>
       <c r="CS46" s="14"/>
       <c r="CT46" s="15"/>
-      <c r="CU46" s="16"/>
-      <c r="CV46" s="14"/>
-      <c r="CW46" s="14"/>
-      <c r="CX46" s="15"/>
     </row>
-    <row r="47" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="37">
-        <f t="shared" ref="D47" si="34">SUM(G47:CX47)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="37">
-        <f t="shared" ref="E47" si="35">SUM(G48:CX48)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="37">
+    <row r="47" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="36">
+        <f>SUM(G47:CT47)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="36">
+        <f>SUM(G48:CT48)</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="36">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
         <v>-2</v>
       </c>
@@ -5822,16 +5643,12 @@
       <c r="CR47" s="18"/>
       <c r="CS47" s="18"/>
       <c r="CT47" s="19"/>
-      <c r="CU47" s="20"/>
-      <c r="CV47" s="18"/>
-      <c r="CW47" s="18"/>
-      <c r="CX47" s="19"/>
     </row>
-    <row r="48" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="36"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+    <row r="48" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="39"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="16"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
@@ -5924,24 +5741,20 @@
       <c r="CR48" s="14"/>
       <c r="CS48" s="14"/>
       <c r="CT48" s="15"/>
-      <c r="CU48" s="16"/>
-      <c r="CV48" s="14"/>
-      <c r="CW48" s="14"/>
-      <c r="CX48" s="15"/>
     </row>
-    <row r="49" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="D49" s="37">
-        <f t="shared" ref="D49" si="36">SUM(G49:CX49)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="37">
-        <f t="shared" ref="E49" si="37">SUM(G50:CX50)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="37">
+    <row r="49" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="36">
+        <f>SUM(G49:CT49)</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="36">
+        <f>SUM(G50:CT50)</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="36">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
         <v>-2</v>
       </c>
@@ -6037,16 +5850,12 @@
       <c r="CR49" s="18"/>
       <c r="CS49" s="18"/>
       <c r="CT49" s="19"/>
-      <c r="CU49" s="20"/>
-      <c r="CV49" s="18"/>
-      <c r="CW49" s="18"/>
-      <c r="CX49" s="19"/>
     </row>
-    <row r="50" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="36"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
+    <row r="50" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="39"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="16"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
@@ -6139,24 +5948,20 @@
       <c r="CR50" s="14"/>
       <c r="CS50" s="14"/>
       <c r="CT50" s="15"/>
-      <c r="CU50" s="16"/>
-      <c r="CV50" s="14"/>
-      <c r="CW50" s="14"/>
-      <c r="CX50" s="15"/>
     </row>
-    <row r="51" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="37">
-        <f t="shared" ref="D51" si="38">SUM(G51:CX51)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="37">
-        <f t="shared" ref="E51" si="39">SUM(G52:CX52)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="37">
+    <row r="51" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="36">
+        <f>SUM(G51:CT51)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="36">
+        <f>SUM(G52:CT52)</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="36">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
         <v>-2</v>
       </c>
@@ -6252,16 +6057,12 @@
       <c r="CR51" s="18"/>
       <c r="CS51" s="18"/>
       <c r="CT51" s="19"/>
-      <c r="CU51" s="20"/>
-      <c r="CV51" s="18"/>
-      <c r="CW51" s="18"/>
-      <c r="CX51" s="19"/>
     </row>
-    <row r="52" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="36"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
+    <row r="52" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="39"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="16"/>
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
@@ -6354,24 +6155,20 @@
       <c r="CR52" s="14"/>
       <c r="CS52" s="14"/>
       <c r="CT52" s="15"/>
-      <c r="CU52" s="16"/>
-      <c r="CV52" s="14"/>
-      <c r="CW52" s="14"/>
-      <c r="CX52" s="15"/>
     </row>
-    <row r="53" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="37">
-        <f t="shared" ref="D53" si="40">SUM(G53:CX53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="37">
-        <f>SUM(G54:CX54)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="37">
+    <row r="53" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="36">
+        <f>SUM(G53:CT53)</f>
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
+        <f>SUM(G54:CT54)</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="36">
         <f>SUM($D$7:D53)-SUM($E$7:E53)</f>
         <v>-2</v>
       </c>
@@ -6467,16 +6264,12 @@
       <c r="CR53" s="18"/>
       <c r="CS53" s="18"/>
       <c r="CT53" s="19"/>
-      <c r="CU53" s="20"/>
-      <c r="CV53" s="18"/>
-      <c r="CW53" s="18"/>
-      <c r="CX53" s="19"/>
     </row>
-    <row r="54" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="36"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
+    <row r="54" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="39"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
       <c r="G54" s="16"/>
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
@@ -6569,24 +6362,20 @@
       <c r="CR54" s="14"/>
       <c r="CS54" s="14"/>
       <c r="CT54" s="15"/>
-      <c r="CU54" s="16"/>
-      <c r="CV54" s="14"/>
-      <c r="CW54" s="14"/>
-      <c r="CX54" s="15"/>
     </row>
-    <row r="55" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="37">
-        <f t="shared" ref="D55" si="41">SUM(G55:CX55)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="37">
-        <f>SUM(G56:CX56)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="37">
+    <row r="55" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="36">
+        <f>SUM(G55:CT55)</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="36">
+        <f>SUM(G56:CT56)</f>
+        <v>0</v>
+      </c>
+      <c r="F55" s="36">
         <f>SUM($D$7:D55)-SUM($E$7:E55)</f>
         <v>-2</v>
       </c>
@@ -6682,16 +6471,12 @@
       <c r="CR55" s="18"/>
       <c r="CS55" s="18"/>
       <c r="CT55" s="19"/>
-      <c r="CU55" s="20"/>
-      <c r="CV55" s="18"/>
-      <c r="CW55" s="18"/>
-      <c r="CX55" s="19"/>
     </row>
-    <row r="56" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="36"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+    <row r="56" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C56" s="39"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
       <c r="G56" s="16"/>
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
@@ -6784,24 +6569,20 @@
       <c r="CR56" s="14"/>
       <c r="CS56" s="14"/>
       <c r="CT56" s="15"/>
-      <c r="CU56" s="14"/>
-      <c r="CV56" s="14"/>
-      <c r="CW56" s="14"/>
-      <c r="CX56" s="15"/>
     </row>
-    <row r="57" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="37">
-        <f>SUM(G57:CX57)</f>
-        <v>0</v>
-      </c>
-      <c r="E57" s="37">
-        <f>SUM(G58:CX58)</f>
-        <v>0</v>
-      </c>
-      <c r="F57" s="37">
+    <row r="57" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="36">
+        <f>SUM(G57:CT57)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" s="36">
+        <f>SUM(G58:CT58)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="36">
         <f>SUM($D$7:D57)-SUM($E$7:E57)</f>
         <v>-2</v>
       </c>
@@ -6897,16 +6678,12 @@
       <c r="CR57" s="18"/>
       <c r="CS57" s="18"/>
       <c r="CT57" s="19"/>
-      <c r="CU57" s="20"/>
-      <c r="CV57" s="18"/>
-      <c r="CW57" s="18"/>
-      <c r="CX57" s="19"/>
     </row>
-    <row r="58" spans="3:102" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="36"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
+    <row r="58" spans="3:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C58" s="39"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
       <c r="G58" s="12"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
@@ -6999,14 +6776,10 @@
       <c r="CR58" s="10"/>
       <c r="CS58" s="10"/>
       <c r="CT58" s="11"/>
-      <c r="CU58" s="12"/>
-      <c r="CV58" s="10"/>
-      <c r="CW58" s="10"/>
-      <c r="CX58" s="11"/>
     </row>
-    <row r="59" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -7103,19 +6876,15 @@
       <c r="CR59" s="2"/>
       <c r="CS59" s="2"/>
       <c r="CT59" s="3"/>
-      <c r="CU59" s="2"/>
-      <c r="CV59" s="2"/>
-      <c r="CW59" s="2"/>
-      <c r="CX59" s="3"/>
     </row>
-    <row r="60" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="62" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C62" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D62" s="7">
         <f>SUM(D7:D58)</f>
@@ -7123,178 +6892,171 @@
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
-      <c r="G62" s="29">
+      <c r="G62" s="33">
         <f>SUM(G7:J7,G9:J9,G11:J11,G13:J13,G15:J15,G17:J17,G20:J20,G22:J22,G24:J24,G26:J26,G28:J28,G30:J30,G32:J32,G35:J35,G37:J37,G39:J39,G41:J41,G43:J43,G45:J45,G47:J47,G49:J49,G51:J51,G53:J53,G55:J55,G57:J57)</f>
         <v>8</v>
       </c>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="31"/>
-      <c r="K62" s="29">
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="33">
         <f>SUM(K7:N7,K9:N9,K11:N11,K13:N13,K15:N15,K17:N17,K20:N20,K22:N22,K24:N24,K26:N26,K28:N28,K30:N30,K32:N32,K35:N35,K37:N37,K39:N39,K41:N41,K43:N43,K45:N45,K47:N47,K49:N49,K51:N51,K53:N53,K55:N55,K57:N57)</f>
         <v>0</v>
       </c>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="29">
-        <f t="shared" ref="O62:O63" si="42">SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O20:R20,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O32:R32,O35:R35,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55,O57:R57)</f>
-        <v>0</v>
-      </c>
-      <c r="P62" s="30"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="29">
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="33">
+        <f t="shared" ref="O62:O63" si="0">SUM(O7:R7,O9:R9,O11:R11,O13:R13,O15:R15,O17:R17,O20:R20,O22:R22,O24:R24,O26:R26,O28:R28,O30:R30,O32:R32,O35:R35,O37:R37,O39:R39,O41:R41,O43:R43,O45:R45,O47:R47,O49:R49,O51:R51,O53:R53,O55:R55,O57:R57)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="34"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="33">
         <f>SUM(S7:V7,S9:V9,S11:V11,S13:V13,S15:V15,S17:V17,S20:V20,S22:V22,S24:V24,S26:V26,S28:V28,S30:V30,S32:V32,S35:V35,S37:V37,S39:V39,S41:V41,S43:V43,S45:V45,S47:V47,S49:V49,S51:V51,S53:V53,S55:V55,S57:V57)</f>
         <v>0</v>
       </c>
-      <c r="T62" s="30"/>
-      <c r="U62" s="30"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="29">
+      <c r="T62" s="34"/>
+      <c r="U62" s="34"/>
+      <c r="V62" s="35"/>
+      <c r="W62" s="33">
         <f>SUM(W7:Z7,W9:Z9,W11:Z11,W13:Z13,W15:Z15,W17:Z17,W20:Z20,W22:Z22,W24:Z24,W26:Z26,W28:Z28,W30:Z30,W32:Z32,W35:Z35,W37:Z37,W39:Z39,W41:Z41,W43:Z43,W45:Z45,W47:Z47,W49:Z49,W51:Z51,W53:Z53,W55:Z55,W57:Z57)</f>
         <v>0</v>
       </c>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="31"/>
-      <c r="AA62" s="29">
-        <f t="shared" ref="AA62:AA63" si="43">SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA20:AD20,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA32:AD32,AA35:AD35,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55,AA57:AD57)</f>
-        <v>0</v>
-      </c>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="31"/>
-      <c r="AE62" s="29">
-        <f t="shared" ref="AE62:AE63" si="44">SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE20:AH20,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE32:AH32,AE35:AH35,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55,AE57:AH57)</f>
-        <v>0</v>
-      </c>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="31"/>
-      <c r="AI62" s="29">
-        <f t="shared" ref="AI62:AI63" si="45">SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI20:AL20,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI32:AL32,AI35:AL35,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55,AI57:AL57)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="31"/>
-      <c r="AM62" s="29">
-        <f t="shared" ref="AM62:AM63" si="46">SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM20:AP20,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM32:AP32,AM35:AP35,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55,AM57:AP57)</f>
-        <v>0</v>
-      </c>
-      <c r="AN62" s="30"/>
-      <c r="AO62" s="30"/>
-      <c r="AP62" s="31"/>
-      <c r="AQ62" s="29">
-        <f t="shared" ref="AQ62:AQ63" si="47">SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ20:AT20,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ32:AT32,AQ35:AT35,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55,AQ57:AT57)</f>
-        <v>0</v>
-      </c>
-      <c r="AR62" s="30"/>
-      <c r="AS62" s="30"/>
-      <c r="AT62" s="31"/>
-      <c r="AU62" s="29">
-        <f t="shared" ref="AU62:AU63" si="48">SUM(AU7:AX7,AU9:AX9,AU11:AX11,AU13:AX13,AU15:AX15,AU17:AX17,AU20:AX20,AU22:AX22,AU24:AX24,AU26:AX26,AU28:AX28,AU30:AX30,AU32:AX32,AU35:AX35,AU37:AX37,AU39:AX39,AU41:AX41,AU43:AX43,AU45:AX45,AU47:AX47,AU49:AX49,AU51:AX51,AU53:AX53,AU55:AX55,AU57:AX57)</f>
-        <v>0</v>
-      </c>
-      <c r="AV62" s="30"/>
-      <c r="AW62" s="30"/>
-      <c r="AX62" s="31"/>
-      <c r="AY62" s="29">
-        <f t="shared" ref="AY62:AY63" si="49">SUM(AY7:BB7,AY9:BB9,AY11:BB11,AY13:BB13,AY15:BB15,AY17:BB17,AY20:BB20,AY22:BB22,AY24:BB24,AY26:BB26,AY28:BB28,AY30:BB30,AY32:BB32,AY35:BB35,AY37:BB37,AY39:BB39,AY41:BB41,AY43:BB43,AY45:BB45,AY47:BB47,AY49:BB49,AY51:BB51,AY53:BB53,AY55:BB55,AY57:BB57)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ62" s="30"/>
-      <c r="BA62" s="30"/>
-      <c r="BB62" s="31"/>
-      <c r="BC62" s="29">
-        <f t="shared" ref="BC62:BC63" si="50">SUM(BC7:BF7,BC9:BF9,BC11:BF11,BC13:BF13,BC15:BF15,BC17:BF17,BC20:BF20,BC22:BF22,BC24:BF24,BC26:BF26,BC28:BF28,BC30:BF30,BC32:BF32,BC35:BF35,BC37:BF37,BC39:BF39,BC41:BF41,BC43:BF43,BC45:BF45,BC47:BF47,BC49:BF49,BC51:BF51,BC53:BF53,BC55:BF55,BC57:BF57)</f>
-        <v>0</v>
-      </c>
-      <c r="BD62" s="30"/>
-      <c r="BE62" s="30"/>
-      <c r="BF62" s="31"/>
-      <c r="BG62" s="29">
-        <f t="shared" ref="BG62:BG63" si="51">SUM(BG7:BJ7,BG9:BJ9,BG11:BJ11,BG13:BJ13,BG15:BJ15,BG17:BJ17,BG20:BJ20,BG22:BJ22,BG24:BJ24,BG26:BJ26,BG28:BJ28,BG30:BJ30,BG32:BJ32,BG35:BJ35,BG37:BJ37,BG39:BJ39,BG41:BJ41,BG43:BJ43,BG45:BJ45,BG47:BJ47,BG49:BJ49,BG51:BJ51,BG53:BJ53,BG55:BJ55,BG57:BJ57)</f>
-        <v>0</v>
-      </c>
-      <c r="BH62" s="30"/>
-      <c r="BI62" s="30"/>
-      <c r="BJ62" s="31"/>
-      <c r="BK62" s="29">
-        <f t="shared" ref="BK62:BK63" si="52">SUM(BK7:BN7,BK9:BN9,BK11:BN11,BK13:BN13,BK15:BN15,BK17:BN17,BK20:BN20,BK22:BN22,BK24:BN24,BK26:BN26,BK28:BN28,BK30:BN30,BK32:BN32,BK35:BN35,BK37:BN37,BK39:BN39,BK41:BN41,BK43:BN43,BK45:BN45,BK47:BN47,BK49:BN49,BK51:BN51,BK53:BN53,BK55:BN55,BK57:BN57)</f>
-        <v>0</v>
-      </c>
-      <c r="BL62" s="30"/>
-      <c r="BM62" s="30"/>
-      <c r="BN62" s="31"/>
-      <c r="BO62" s="29">
-        <f t="shared" ref="BO62:BO63" si="53">SUM(BO7:BR7,BO9:BR9,BO11:BR11,BO13:BR13,BO15:BR15,BO17:BR17,BO20:BR20,BO22:BR22,BO24:BR24,BO26:BR26,BO28:BR28,BO30:BR30,BO32:BR32,BO35:BR35,BO37:BR37,BO39:BR39,BO41:BR41,BO43:BR43,BO45:BR45,BO47:BR47,BO49:BR49,BO51:BR51,BO53:BR53,BO55:BR55,BO57:BR57)</f>
-        <v>0</v>
-      </c>
-      <c r="BP62" s="30"/>
-      <c r="BQ62" s="30"/>
-      <c r="BR62" s="31"/>
-      <c r="BS62" s="29">
-        <f t="shared" ref="BS62:BS63" si="54">SUM(BS7:BV7,BS9:BV9,BS11:BV11,BS13:BV13,BS15:BV15,BS17:BV17,BS20:BV20,BS22:BV22,BS24:BV24,BS26:BV26,BS28:BV28,BS30:BV30,BS32:BV32,BS35:BV35,BS37:BV37,BS39:BV39,BS41:BV41,BS43:BV43,BS45:BV45,BS47:BV47,BS49:BV49,BS51:BV51,BS53:BV53,BS55:BV55,BS57:BV57)</f>
-        <v>0</v>
-      </c>
-      <c r="BT62" s="30"/>
-      <c r="BU62" s="30"/>
-      <c r="BV62" s="31"/>
-      <c r="BW62" s="29">
-        <f t="shared" ref="BW62:BW63" si="55">SUM(BW7:BZ7,BW9:BZ9,BW11:BZ11,BW13:BZ13,BW15:BZ15,BW17:BZ17,BW20:BZ20,BW22:BZ22,BW24:BZ24,BW26:BZ26,BW28:BZ28,BW30:BZ30,BW32:BZ32,BW35:BZ35,BW37:BZ37,BW39:BZ39,BW41:BZ41,BW43:BZ43,BW45:BZ45,BW47:BZ47,BW49:BZ49,BW51:BZ51,BW53:BZ53,BW55:BZ55,BW57:BZ57)</f>
-        <v>0</v>
-      </c>
-      <c r="BX62" s="30"/>
-      <c r="BY62" s="30"/>
-      <c r="BZ62" s="31"/>
-      <c r="CA62" s="29">
-        <f t="shared" ref="CA62:CA63" si="56">SUM(CA7:CD7,CA9:CD9,CA11:CD11,CA13:CD13,CA15:CD15,CA17:CD17,CA20:CD20,CA22:CD22,CA24:CD24,CA26:CD26,CA28:CD28,CA30:CD30,CA32:CD32,CA35:CD35,CA37:CD37,CA39:CD39,CA41:CD41,CA43:CD43,CA45:CD45,CA47:CD47,CA49:CD49,CA51:CD51,CA53:CD53,CA55:CD55,CA57:CD57)</f>
-        <v>0</v>
-      </c>
-      <c r="CB62" s="30"/>
-      <c r="CC62" s="30"/>
-      <c r="CD62" s="31"/>
-      <c r="CE62" s="29">
-        <f t="shared" ref="CE62:CE63" si="57">SUM(CE7:CH7,CE9:CH9,CE11:CH11,CE13:CH13,CE15:CH15,CE17:CH17,CE20:CH20,CE22:CH22,CE24:CH24,CE26:CH26,CE28:CH28,CE30:CH30,CE32:CH32,CE35:CH35,CE37:CH37,CE39:CH39,CE41:CH41,CE43:CH43,CE45:CH45,CE47:CH47,CE49:CH49,CE51:CH51,CE53:CH53,CE55:CH55,CE57:CH57)</f>
-        <v>0</v>
-      </c>
-      <c r="CF62" s="30"/>
-      <c r="CG62" s="30"/>
-      <c r="CH62" s="31"/>
-      <c r="CI62" s="29">
-        <f t="shared" ref="CI62:CI63" si="58">SUM(CI7:CL7,CI9:CL9,CI11:CL11,CI13:CL13,CI15:CL15,CI17:CL17,CI20:CL20,CI22:CL22,CI24:CL24,CI26:CL26,CI28:CL28,CI30:CL30,CI32:CL32,CI35:CL35,CI37:CL37,CI39:CL39,CI41:CL41,CI43:CL43,CI45:CL45,CI47:CL47,CI49:CL49,CI51:CL51,CI53:CL53,CI55:CL55,CI57:CL57)</f>
-        <v>0</v>
-      </c>
-      <c r="CJ62" s="30"/>
-      <c r="CK62" s="30"/>
-      <c r="CL62" s="31"/>
-      <c r="CM62" s="29">
-        <f t="shared" ref="CM62:CM63" si="59">SUM(CM7:CP7,CM9:CP9,CM11:CP11,CM13:CP13,CM15:CP15,CM17:CP17,CM20:CP20,CM22:CP22,CM24:CP24,CM26:CP26,CM28:CP28,CM30:CP30,CM32:CP32,CM35:CP35,CM37:CP37,CM39:CP39,CM41:CP41,CM43:CP43,CM45:CP45,CM47:CP47,CM49:CP49,CM51:CP51,CM53:CP53,CM55:CP55,CM57:CP57)</f>
-        <v>0</v>
-      </c>
-      <c r="CN62" s="30"/>
-      <c r="CO62" s="30"/>
-      <c r="CP62" s="31"/>
-      <c r="CQ62" s="29">
-        <f t="shared" ref="CQ62:CQ63" si="60">SUM(CQ7:CT7,CQ9:CT9,CQ11:CT11,CQ13:CT13,CQ15:CT15,CQ17:CT17,CQ20:CT20,CQ22:CT22,CQ24:CT24,CQ26:CT26,CQ28:CT28,CQ30:CT30,CQ32:CT32,CQ35:CT35,CQ37:CT37,CQ39:CT39,CQ41:CT41,CQ43:CT43,CQ45:CT45,CQ47:CT47,CQ49:CT49,CQ51:CT51,CQ53:CT53,CQ55:CT55,CQ57:CT57)</f>
-        <v>0</v>
-      </c>
-      <c r="CR62" s="30"/>
-      <c r="CS62" s="30"/>
-      <c r="CT62" s="31"/>
-      <c r="CU62" s="29">
-        <f t="shared" ref="CU62:CU63" si="61">SUM(CU7:CX7,CU9:CX9,CU11:CX11,CU13:CX13,CU15:CX15,CU17:CX17,CU20:CX20,CU22:CX22,CU24:CX24,CU26:CX26,CU28:CX28,CU30:CX30,CU32:CX32,CU35:CX35,CU37:CX37,CU39:CX39,CU41:CX41,CU43:CX43,CU45:CX45,CU47:CX47,CU49:CX49,CU51:CX51,CU53:CX53,CU55:CX55,CU57:CX57)</f>
-        <v>0</v>
-      </c>
-      <c r="CV62" s="30"/>
-      <c r="CW62" s="30"/>
-      <c r="CX62" s="31"/>
+      <c r="X62" s="34"/>
+      <c r="Y62" s="34"/>
+      <c r="Z62" s="35"/>
+      <c r="AA62" s="33">
+        <f t="shared" ref="AA62:AA63" si="1">SUM(AA7:AD7,AA9:AD9,AA11:AD11,AA13:AD13,AA15:AD15,AA17:AD17,AA20:AD20,AA22:AD22,AA24:AD24,AA26:AD26,AA28:AD28,AA30:AD30,AA32:AD32,AA35:AD35,AA37:AD37,AA39:AD39,AA41:AD41,AA43:AD43,AA45:AD45,AA47:AD47,AA49:AD49,AA51:AD51,AA53:AD53,AA55:AD55,AA57:AD57)</f>
+        <v>0</v>
+      </c>
+      <c r="AB62" s="34"/>
+      <c r="AC62" s="34"/>
+      <c r="AD62" s="35"/>
+      <c r="AE62" s="33">
+        <f t="shared" ref="AE62:AE63" si="2">SUM(AE7:AH7,AE9:AH9,AE11:AH11,AE13:AH13,AE15:AH15,AE17:AH17,AE20:AH20,AE22:AH22,AE24:AH24,AE26:AH26,AE28:AH28,AE30:AH30,AE32:AH32,AE35:AH35,AE37:AH37,AE39:AH39,AE41:AH41,AE43:AH43,AE45:AH45,AE47:AH47,AE49:AH49,AE51:AH51,AE53:AH53,AE55:AH55,AE57:AH57)</f>
+        <v>0</v>
+      </c>
+      <c r="AF62" s="34"/>
+      <c r="AG62" s="34"/>
+      <c r="AH62" s="35"/>
+      <c r="AI62" s="33">
+        <f t="shared" ref="AI62:AI63" si="3">SUM(AI7:AL7,AI9:AL9,AI11:AL11,AI13:AL13,AI15:AL15,AI17:AL17,AI20:AL20,AI22:AL22,AI24:AL24,AI26:AL26,AI28:AL28,AI30:AL30,AI32:AL32,AI35:AL35,AI37:AL37,AI39:AL39,AI41:AL41,AI43:AL43,AI45:AL45,AI47:AL47,AI49:AL49,AI51:AL51,AI53:AL53,AI55:AL55,AI57:AL57)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="34"/>
+      <c r="AK62" s="34"/>
+      <c r="AL62" s="35"/>
+      <c r="AM62" s="33">
+        <f t="shared" ref="AM62:AM63" si="4">SUM(AM7:AP7,AM9:AP9,AM11:AP11,AM13:AP13,AM15:AP15,AM17:AP17,AM20:AP20,AM22:AP22,AM24:AP24,AM26:AP26,AM28:AP28,AM30:AP30,AM32:AP32,AM35:AP35,AM37:AP37,AM39:AP39,AM41:AP41,AM43:AP43,AM45:AP45,AM47:AP47,AM49:AP49,AM51:AP51,AM53:AP53,AM55:AP55,AM57:AP57)</f>
+        <v>0</v>
+      </c>
+      <c r="AN62" s="34"/>
+      <c r="AO62" s="34"/>
+      <c r="AP62" s="35"/>
+      <c r="AQ62" s="33">
+        <f t="shared" ref="AQ62:AQ63" si="5">SUM(AQ7:AT7,AQ9:AT9,AQ11:AT11,AQ13:AT13,AQ15:AT15,AQ17:AT17,AQ20:AT20,AQ22:AT22,AQ24:AT24,AQ26:AT26,AQ28:AT28,AQ30:AT30,AQ32:AT32,AQ35:AT35,AQ37:AT37,AQ39:AT39,AQ41:AT41,AQ43:AT43,AQ45:AT45,AQ47:AT47,AQ49:AT49,AQ51:AT51,AQ53:AT53,AQ55:AT55,AQ57:AT57)</f>
+        <v>0</v>
+      </c>
+      <c r="AR62" s="34"/>
+      <c r="AS62" s="34"/>
+      <c r="AT62" s="35"/>
+      <c r="AU62" s="33">
+        <f t="shared" ref="AU62:AU63" si="6">SUM(AU7:AX7,AU9:AX9,AU11:AX11,AU13:AX13,AU15:AX15,AU17:AX17,AU20:AX20,AU22:AX22,AU24:AX24,AU26:AX26,AU28:AX28,AU30:AX30,AU32:AX32,AU35:AX35,AU37:AX37,AU39:AX39,AU41:AX41,AU43:AX43,AU45:AX45,AU47:AX47,AU49:AX49,AU51:AX51,AU53:AX53,AU55:AX55,AU57:AX57)</f>
+        <v>0</v>
+      </c>
+      <c r="AV62" s="34"/>
+      <c r="AW62" s="34"/>
+      <c r="AX62" s="35"/>
+      <c r="AY62" s="33">
+        <f t="shared" ref="AY62:AY63" si="7">SUM(AY7:BB7,AY9:BB9,AY11:BB11,AY13:BB13,AY15:BB15,AY17:BB17,AY20:BB20,AY22:BB22,AY24:BB24,AY26:BB26,AY28:BB28,AY30:BB30,AY32:BB32,AY35:BB35,AY37:BB37,AY39:BB39,AY41:BB41,AY43:BB43,AY45:BB45,AY47:BB47,AY49:BB49,AY51:BB51,AY53:BB53,AY55:BB55,AY57:BB57)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ62" s="34"/>
+      <c r="BA62" s="34"/>
+      <c r="BB62" s="35"/>
+      <c r="BC62" s="33">
+        <f t="shared" ref="BC62:BC63" si="8">SUM(BC7:BF7,BC9:BF9,BC11:BF11,BC13:BF13,BC15:BF15,BC17:BF17,BC20:BF20,BC22:BF22,BC24:BF24,BC26:BF26,BC28:BF28,BC30:BF30,BC32:BF32,BC35:BF35,BC37:BF37,BC39:BF39,BC41:BF41,BC43:BF43,BC45:BF45,BC47:BF47,BC49:BF49,BC51:BF51,BC53:BF53,BC55:BF55,BC57:BF57)</f>
+        <v>0</v>
+      </c>
+      <c r="BD62" s="34"/>
+      <c r="BE62" s="34"/>
+      <c r="BF62" s="35"/>
+      <c r="BG62" s="33">
+        <f t="shared" ref="BG62:BG63" si="9">SUM(BG7:BJ7,BG9:BJ9,BG11:BJ11,BG13:BJ13,BG15:BJ15,BG17:BJ17,BG20:BJ20,BG22:BJ22,BG24:BJ24,BG26:BJ26,BG28:BJ28,BG30:BJ30,BG32:BJ32,BG35:BJ35,BG37:BJ37,BG39:BJ39,BG41:BJ41,BG43:BJ43,BG45:BJ45,BG47:BJ47,BG49:BJ49,BG51:BJ51,BG53:BJ53,BG55:BJ55,BG57:BJ57)</f>
+        <v>0</v>
+      </c>
+      <c r="BH62" s="34"/>
+      <c r="BI62" s="34"/>
+      <c r="BJ62" s="35"/>
+      <c r="BK62" s="33">
+        <f t="shared" ref="BK62:BK63" si="10">SUM(BK7:BN7,BK9:BN9,BK11:BN11,BK13:BN13,BK15:BN15,BK17:BN17,BK20:BN20,BK22:BN22,BK24:BN24,BK26:BN26,BK28:BN28,BK30:BN30,BK32:BN32,BK35:BN35,BK37:BN37,BK39:BN39,BK41:BN41,BK43:BN43,BK45:BN45,BK47:BN47,BK49:BN49,BK51:BN51,BK53:BN53,BK55:BN55,BK57:BN57)</f>
+        <v>0</v>
+      </c>
+      <c r="BL62" s="34"/>
+      <c r="BM62" s="34"/>
+      <c r="BN62" s="35"/>
+      <c r="BO62" s="33">
+        <f t="shared" ref="BO62:BO63" si="11">SUM(BO7:BR7,BO9:BR9,BO11:BR11,BO13:BR13,BO15:BR15,BO17:BR17,BO20:BR20,BO22:BR22,BO24:BR24,BO26:BR26,BO28:BR28,BO30:BR30,BO32:BR32,BO35:BR35,BO37:BR37,BO39:BR39,BO41:BR41,BO43:BR43,BO45:BR45,BO47:BR47,BO49:BR49,BO51:BR51,BO53:BR53,BO55:BR55,BO57:BR57)</f>
+        <v>0</v>
+      </c>
+      <c r="BP62" s="34"/>
+      <c r="BQ62" s="34"/>
+      <c r="BR62" s="35"/>
+      <c r="BS62" s="33">
+        <f t="shared" ref="BS62:BS63" si="12">SUM(BS7:BV7,BS9:BV9,BS11:BV11,BS13:BV13,BS15:BV15,BS17:BV17,BS20:BV20,BS22:BV22,BS24:BV24,BS26:BV26,BS28:BV28,BS30:BV30,BS32:BV32,BS35:BV35,BS37:BV37,BS39:BV39,BS41:BV41,BS43:BV43,BS45:BV45,BS47:BV47,BS49:BV49,BS51:BV51,BS53:BV53,BS55:BV55,BS57:BV57)</f>
+        <v>0</v>
+      </c>
+      <c r="BT62" s="34"/>
+      <c r="BU62" s="34"/>
+      <c r="BV62" s="35"/>
+      <c r="BW62" s="33">
+        <f t="shared" ref="BW62:BW63" si="13">SUM(BW7:BZ7,BW9:BZ9,BW11:BZ11,BW13:BZ13,BW15:BZ15,BW17:BZ17,BW20:BZ20,BW22:BZ22,BW24:BZ24,BW26:BZ26,BW28:BZ28,BW30:BZ30,BW32:BZ32,BW35:BZ35,BW37:BZ37,BW39:BZ39,BW41:BZ41,BW43:BZ43,BW45:BZ45,BW47:BZ47,BW49:BZ49,BW51:BZ51,BW53:BZ53,BW55:BZ55,BW57:BZ57)</f>
+        <v>0</v>
+      </c>
+      <c r="BX62" s="34"/>
+      <c r="BY62" s="34"/>
+      <c r="BZ62" s="35"/>
+      <c r="CA62" s="33">
+        <f t="shared" ref="CA62:CA63" si="14">SUM(CA7:CD7,CA9:CD9,CA11:CD11,CA13:CD13,CA15:CD15,CA17:CD17,CA20:CD20,CA22:CD22,CA24:CD24,CA26:CD26,CA28:CD28,CA30:CD30,CA32:CD32,CA35:CD35,CA37:CD37,CA39:CD39,CA41:CD41,CA43:CD43,CA45:CD45,CA47:CD47,CA49:CD49,CA51:CD51,CA53:CD53,CA55:CD55,CA57:CD57)</f>
+        <v>0</v>
+      </c>
+      <c r="CB62" s="34"/>
+      <c r="CC62" s="34"/>
+      <c r="CD62" s="35"/>
+      <c r="CE62" s="33">
+        <f t="shared" ref="CE62:CE63" si="15">SUM(CE7:CH7,CE9:CH9,CE11:CH11,CE13:CH13,CE15:CH15,CE17:CH17,CE20:CH20,CE22:CH22,CE24:CH24,CE26:CH26,CE28:CH28,CE30:CH30,CE32:CH32,CE35:CH35,CE37:CH37,CE39:CH39,CE41:CH41,CE43:CH43,CE45:CH45,CE47:CH47,CE49:CH49,CE51:CH51,CE53:CH53,CE55:CH55,CE57:CH57)</f>
+        <v>0</v>
+      </c>
+      <c r="CF62" s="34"/>
+      <c r="CG62" s="34"/>
+      <c r="CH62" s="35"/>
+      <c r="CI62" s="33">
+        <f t="shared" ref="CI62:CI63" si="16">SUM(CI7:CL7,CI9:CL9,CI11:CL11,CI13:CL13,CI15:CL15,CI17:CL17,CI20:CL20,CI22:CL22,CI24:CL24,CI26:CL26,CI28:CL28,CI30:CL30,CI32:CL32,CI35:CL35,CI37:CL37,CI39:CL39,CI41:CL41,CI43:CL43,CI45:CL45,CI47:CL47,CI49:CL49,CI51:CL51,CI53:CL53,CI55:CL55,CI57:CL57)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ62" s="34"/>
+      <c r="CK62" s="34"/>
+      <c r="CL62" s="35"/>
+      <c r="CM62" s="33">
+        <f t="shared" ref="CM62:CM63" si="17">SUM(CM7:CP7,CM9:CP9,CM11:CP11,CM13:CP13,CM15:CP15,CM17:CP17,CM20:CP20,CM22:CP22,CM24:CP24,CM26:CP26,CM28:CP28,CM30:CP30,CM32:CP32,CM35:CP35,CM37:CP37,CM39:CP39,CM41:CP41,CM43:CP43,CM45:CP45,CM47:CP47,CM49:CP49,CM51:CP51,CM53:CP53,CM55:CP55,CM57:CP57)</f>
+        <v>0</v>
+      </c>
+      <c r="CN62" s="34"/>
+      <c r="CO62" s="34"/>
+      <c r="CP62" s="35"/>
+      <c r="CQ62" s="33">
+        <f t="shared" ref="CQ62:CQ63" si="18">SUM(CQ7:CT7,CQ9:CT9,CQ11:CT11,CQ13:CT13,CQ15:CT15,CQ17:CT17,CQ20:CT20,CQ22:CT22,CQ24:CT24,CQ26:CT26,CQ28:CT28,CQ30:CT30,CQ32:CT32,CQ35:CT35,CQ37:CT37,CQ39:CT39,CQ41:CT41,CQ43:CT43,CQ45:CT45,CQ47:CT47,CQ49:CT49,CQ51:CT51,CQ53:CT53,CQ55:CT55,CQ57:CT57)</f>
+        <v>0</v>
+      </c>
+      <c r="CR62" s="34"/>
+      <c r="CS62" s="34"/>
+      <c r="CT62" s="35"/>
     </row>
-    <row r="63" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C63" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7">
@@ -7302,247 +7064,318 @@
         <v>10</v>
       </c>
       <c r="F63" s="8"/>
-      <c r="G63" s="29">
+      <c r="G63" s="33">
         <f>SUM(G8:J8,G10:J10,G12:J12,G14:J14,G16:J16,G18:J18,G21:J21,G23:J23,G25:J25,G27:J27,G29:J29,G31:J31,G33:J33,G36:J36,G38:J38,G40:J40,G42:J42,G44:J44,G46:J46,G48:J48,G50:J50,G52:J52,G54:J54,G56:J56,G58:J58)</f>
         <v>8</v>
       </c>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
-      <c r="K63" s="29">
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="33">
         <f>SUM(K8:N8,K10:N10,K12:N12,K14:N14,K16:N16,K18:N18,K21:N21,K23:N23,K25:N25,K27:N27,K29:N29,K31:N31,K33:N33,K36:N36,K38:N38,K40:N40,K42:N42,K44:N44,K46:N46,K48:N48,K50:N50,K52:N52,K54:N54,K56:N56,K58:N58)</f>
         <v>2</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="29">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="29">
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="35"/>
+      <c r="S63" s="33">
         <f>SUM(S8:V8,S10:V10,S12:V12,S14:V14,S16:V16,S18:V18,S21:V21,S23:V23,S25:V25,S27:V27,S29:V29,S31:V31,S33:V33,S36:V36,S38:V38,S40:V40,S42:V42,S44:V44,S46:V46,S48:V48,S50:V50,S52:V52,S54:V54,S56:V56,S58:V58)</f>
         <v>0</v>
       </c>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="29">
+      <c r="T63" s="34"/>
+      <c r="U63" s="34"/>
+      <c r="V63" s="35"/>
+      <c r="W63" s="33">
         <f>SUM(W8:Z8,W10:Z10,W12:Z12,W14:Z14,W16:Z16,W18:Z18,W21:Z21,W23:Z23,W25:Z25,W27:Z27,W29:Z29,W31:Z31,W33:Z33,W36:Z36,W38:Z38,W40:Z40,W42:Z42,W44:Z44,W46:Z46,W48:Z48,W50:Z50,W52:Z52,W54:Z54,W56:Z56,W58:Z58)</f>
         <v>0</v>
       </c>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="31"/>
-      <c r="AE63" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="31"/>
-      <c r="AI63" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="31"/>
-      <c r="AM63" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="AN63" s="30"/>
-      <c r="AO63" s="30"/>
-      <c r="AP63" s="31"/>
-      <c r="AQ63" s="29">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="AR63" s="30"/>
-      <c r="AS63" s="30"/>
-      <c r="AT63" s="31"/>
-      <c r="AU63" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="AV63" s="30"/>
-      <c r="AW63" s="30"/>
-      <c r="AX63" s="31"/>
-      <c r="AY63" s="29">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AZ63" s="30"/>
-      <c r="BA63" s="30"/>
-      <c r="BB63" s="31"/>
-      <c r="BC63" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="BD63" s="30"/>
-      <c r="BE63" s="30"/>
-      <c r="BF63" s="31"/>
-      <c r="BG63" s="29">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="BH63" s="30"/>
-      <c r="BI63" s="30"/>
-      <c r="BJ63" s="31"/>
-      <c r="BK63" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="BL63" s="30"/>
-      <c r="BM63" s="30"/>
-      <c r="BN63" s="31"/>
-      <c r="BO63" s="29">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="BP63" s="30"/>
-      <c r="BQ63" s="30"/>
-      <c r="BR63" s="31"/>
-      <c r="BS63" s="29">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="BT63" s="30"/>
-      <c r="BU63" s="30"/>
-      <c r="BV63" s="31"/>
-      <c r="BW63" s="29">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="BX63" s="30"/>
-      <c r="BY63" s="30"/>
-      <c r="BZ63" s="31"/>
-      <c r="CA63" s="29">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="CB63" s="30"/>
-      <c r="CC63" s="30"/>
-      <c r="CD63" s="31"/>
-      <c r="CE63" s="29">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="CF63" s="30"/>
-      <c r="CG63" s="30"/>
-      <c r="CH63" s="31"/>
-      <c r="CI63" s="29">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="CJ63" s="30"/>
-      <c r="CK63" s="30"/>
-      <c r="CL63" s="31"/>
-      <c r="CM63" s="29">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="CN63" s="30"/>
-      <c r="CO63" s="30"/>
-      <c r="CP63" s="31"/>
-      <c r="CQ63" s="29">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="CR63" s="30"/>
-      <c r="CS63" s="30"/>
-      <c r="CT63" s="31"/>
-      <c r="CU63" s="29">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="CV63" s="30"/>
-      <c r="CW63" s="30"/>
-      <c r="CX63" s="31"/>
+      <c r="X63" s="34"/>
+      <c r="Y63" s="34"/>
+      <c r="Z63" s="35"/>
+      <c r="AA63" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="34"/>
+      <c r="AC63" s="34"/>
+      <c r="AD63" s="35"/>
+      <c r="AE63" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF63" s="34"/>
+      <c r="AG63" s="34"/>
+      <c r="AH63" s="35"/>
+      <c r="AI63" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="34"/>
+      <c r="AK63" s="34"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AN63" s="34"/>
+      <c r="AO63" s="34"/>
+      <c r="AP63" s="35"/>
+      <c r="AQ63" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AR63" s="34"/>
+      <c r="AS63" s="34"/>
+      <c r="AT63" s="35"/>
+      <c r="AU63" s="33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AV63" s="34"/>
+      <c r="AW63" s="34"/>
+      <c r="AX63" s="35"/>
+      <c r="AY63" s="33">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="34"/>
+      <c r="BA63" s="34"/>
+      <c r="BB63" s="35"/>
+      <c r="BC63" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BD63" s="34"/>
+      <c r="BE63" s="34"/>
+      <c r="BF63" s="35"/>
+      <c r="BG63" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH63" s="34"/>
+      <c r="BI63" s="34"/>
+      <c r="BJ63" s="35"/>
+      <c r="BK63" s="33">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BL63" s="34"/>
+      <c r="BM63" s="34"/>
+      <c r="BN63" s="35"/>
+      <c r="BO63" s="33">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BP63" s="34"/>
+      <c r="BQ63" s="34"/>
+      <c r="BR63" s="35"/>
+      <c r="BS63" s="33">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BT63" s="34"/>
+      <c r="BU63" s="34"/>
+      <c r="BV63" s="35"/>
+      <c r="BW63" s="33">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BX63" s="34"/>
+      <c r="BY63" s="34"/>
+      <c r="BZ63" s="35"/>
+      <c r="CA63" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="CB63" s="34"/>
+      <c r="CC63" s="34"/>
+      <c r="CD63" s="35"/>
+      <c r="CE63" s="33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="CF63" s="34"/>
+      <c r="CG63" s="34"/>
+      <c r="CH63" s="35"/>
+      <c r="CI63" s="33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="CJ63" s="34"/>
+      <c r="CK63" s="34"/>
+      <c r="CL63" s="35"/>
+      <c r="CM63" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="CN63" s="34"/>
+      <c r="CO63" s="34"/>
+      <c r="CP63" s="35"/>
+      <c r="CQ63" s="33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="CR63" s="34"/>
+      <c r="CS63" s="34"/>
+      <c r="CT63" s="35"/>
     </row>
-    <row r="64" spans="3:102" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:98" x14ac:dyDescent="0.35">
       <c r="C64" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D64" s="42">
+        <v>63</v>
+      </c>
+      <c r="D64" s="31">
         <f>D62-E63</f>
         <v>-2</v>
       </c>
-      <c r="E64" s="43"/>
+      <c r="E64" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="224">
-    <mergeCell ref="CQ4:CT4"/>
-    <mergeCell ref="CQ5:CR5"/>
-    <mergeCell ref="CS5:CT5"/>
-    <mergeCell ref="CU4:CX4"/>
-    <mergeCell ref="CU5:CV5"/>
-    <mergeCell ref="CW5:CX5"/>
-    <mergeCell ref="CE4:CH4"/>
-    <mergeCell ref="CE5:CF5"/>
-    <mergeCell ref="CG5:CH5"/>
-    <mergeCell ref="CI4:CL4"/>
-    <mergeCell ref="CI5:CJ5"/>
-    <mergeCell ref="CK5:CL5"/>
-    <mergeCell ref="CM4:CP4"/>
-    <mergeCell ref="CM5:CN5"/>
-    <mergeCell ref="CO5:CP5"/>
-    <mergeCell ref="BS4:BV4"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BU5:BV5"/>
-    <mergeCell ref="BW4:BZ4"/>
-    <mergeCell ref="BW5:BX5"/>
-    <mergeCell ref="BY5:BZ5"/>
-    <mergeCell ref="CA4:CD4"/>
-    <mergeCell ref="CA5:CB5"/>
-    <mergeCell ref="CC5:CD5"/>
-    <mergeCell ref="BG4:BJ4"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK4:BN4"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BO4:BR4"/>
-    <mergeCell ref="BO5:BP5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="AE62:AH62"/>
-    <mergeCell ref="AI62:AL62"/>
-    <mergeCell ref="AM62:AP62"/>
-    <mergeCell ref="AQ62:AT62"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="O63:R63"/>
-    <mergeCell ref="S63:V63"/>
-    <mergeCell ref="W63:Z63"/>
-    <mergeCell ref="AA63:AD63"/>
-    <mergeCell ref="G62:J62"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="O62:R62"/>
-    <mergeCell ref="S62:V62"/>
-    <mergeCell ref="W62:Z62"/>
-    <mergeCell ref="AA62:AD62"/>
-    <mergeCell ref="AE63:AH63"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
+  <mergeCells count="219">
+    <mergeCell ref="BK63:BN63"/>
+    <mergeCell ref="BO63:BR63"/>
+    <mergeCell ref="BS63:BV63"/>
+    <mergeCell ref="BW63:BZ63"/>
+    <mergeCell ref="CA63:CD63"/>
+    <mergeCell ref="CE63:CH63"/>
+    <mergeCell ref="CI63:CL63"/>
+    <mergeCell ref="CM63:CP63"/>
+    <mergeCell ref="CQ63:CT63"/>
+    <mergeCell ref="BK62:BN62"/>
+    <mergeCell ref="BO62:BR62"/>
+    <mergeCell ref="BS62:BV62"/>
+    <mergeCell ref="BW62:BZ62"/>
+    <mergeCell ref="CA62:CD62"/>
+    <mergeCell ref="CE62:CH62"/>
+    <mergeCell ref="CI62:CL62"/>
+    <mergeCell ref="CM62:CP62"/>
+    <mergeCell ref="CQ62:CT62"/>
+    <mergeCell ref="AI4:AL4"/>
+    <mergeCell ref="AU62:AX62"/>
+    <mergeCell ref="AU63:AX63"/>
+    <mergeCell ref="AY62:BB62"/>
+    <mergeCell ref="BC62:BF62"/>
+    <mergeCell ref="BG62:BJ62"/>
+    <mergeCell ref="AY63:BB63"/>
+    <mergeCell ref="BC63:BF63"/>
+    <mergeCell ref="BG63:BJ63"/>
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="AI63:AL63"/>
+    <mergeCell ref="AM63:AP63"/>
+    <mergeCell ref="AQ63:AT63"/>
+    <mergeCell ref="AU4:AX4"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY4:BB4"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC4:BF4"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D55:D56"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
     <mergeCell ref="E32:E33"/>
@@ -7567,146 +7400,63 @@
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="W4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AI4:AL4"/>
-    <mergeCell ref="AU62:AX62"/>
-    <mergeCell ref="AU63:AX63"/>
-    <mergeCell ref="AY62:BB62"/>
-    <mergeCell ref="BC62:BF62"/>
-    <mergeCell ref="BG62:BJ62"/>
-    <mergeCell ref="AY63:BB63"/>
-    <mergeCell ref="BC63:BF63"/>
-    <mergeCell ref="BG63:BJ63"/>
-    <mergeCell ref="AM4:AP4"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="AI63:AL63"/>
-    <mergeCell ref="AM63:AP63"/>
-    <mergeCell ref="AQ63:AT63"/>
-    <mergeCell ref="AU4:AX4"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY4:BB4"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC4:BF4"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="CU62:CX62"/>
-    <mergeCell ref="BK63:BN63"/>
-    <mergeCell ref="BO63:BR63"/>
-    <mergeCell ref="BS63:BV63"/>
-    <mergeCell ref="BW63:BZ63"/>
-    <mergeCell ref="CA63:CD63"/>
-    <mergeCell ref="CE63:CH63"/>
-    <mergeCell ref="CI63:CL63"/>
-    <mergeCell ref="CM63:CP63"/>
-    <mergeCell ref="CQ63:CT63"/>
-    <mergeCell ref="CU63:CX63"/>
-    <mergeCell ref="BK62:BN62"/>
-    <mergeCell ref="BO62:BR62"/>
-    <mergeCell ref="BS62:BV62"/>
-    <mergeCell ref="BW62:BZ62"/>
-    <mergeCell ref="CA62:CD62"/>
-    <mergeCell ref="CE62:CH62"/>
-    <mergeCell ref="CI62:CL62"/>
-    <mergeCell ref="CM62:CP62"/>
-    <mergeCell ref="CQ62:CT62"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="AE62:AH62"/>
+    <mergeCell ref="AI62:AL62"/>
+    <mergeCell ref="AM62:AP62"/>
+    <mergeCell ref="AQ62:AT62"/>
+    <mergeCell ref="G63:J63"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="O63:R63"/>
+    <mergeCell ref="S63:V63"/>
+    <mergeCell ref="W63:Z63"/>
+    <mergeCell ref="AA63:AD63"/>
+    <mergeCell ref="G62:J62"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="S62:V62"/>
+    <mergeCell ref="W62:Z62"/>
+    <mergeCell ref="AA62:AD62"/>
+    <mergeCell ref="AE63:AH63"/>
+    <mergeCell ref="BG4:BJ4"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK4:BN4"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BO4:BR4"/>
+    <mergeCell ref="BO5:BP5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="BS4:BV4"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BU5:BV5"/>
+    <mergeCell ref="BW4:BZ4"/>
+    <mergeCell ref="BW5:BX5"/>
+    <mergeCell ref="BY5:BZ5"/>
+    <mergeCell ref="CA4:CD4"/>
+    <mergeCell ref="CA5:CB5"/>
+    <mergeCell ref="CC5:CD5"/>
+    <mergeCell ref="CQ4:CT4"/>
+    <mergeCell ref="CQ5:CR5"/>
+    <mergeCell ref="CS5:CT5"/>
+    <mergeCell ref="CE4:CH4"/>
+    <mergeCell ref="CE5:CF5"/>
+    <mergeCell ref="CG5:CH5"/>
+    <mergeCell ref="CI4:CL4"/>
+    <mergeCell ref="CI5:CJ5"/>
+    <mergeCell ref="CK5:CL5"/>
+    <mergeCell ref="CM4:CP4"/>
+    <mergeCell ref="CM5:CN5"/>
+    <mergeCell ref="CO5:CP5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7718,21 +7468,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C9F4249773A24249BE9B3F9411B0C18E" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="908aab9b8dae649c95f0c610c75bf370">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1c1be76-b8f0-4a5d-8f83-f5e69c993518" xmlns:ns3="55687998-474e-4d50-81ff-7419a1059b69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93a8bac063dcadd72e577fd6b72d2684" ns2:_="" ns3:_="">
     <xsd:import namespace="b1c1be76-b8f0-4a5d-8f83-f5e69c993518"/>
@@ -7943,24 +7678,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722931B3-5BF4-4EBD-A6E8-DCBD3D14791B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7977,4 +7710,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438C719-53C2-4B28-8926-BAD28F1A9506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC20A6-B7B4-494A-86C9-29C090BA3DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Aufwand SOLL</t>
   </si>
@@ -73,40 +73,7 @@
     <t>3. Realisierung</t>
   </si>
   <si>
-    <t>3.1 Installation Betriebsysteme</t>
-  </si>
-  <si>
-    <t>3.2 Voraussetzungen SCCM (Features)</t>
-  </si>
-  <si>
-    <t>3.3 Installation/Konfiguration MS SQL Server</t>
-  </si>
-  <si>
-    <t>3.4 Installation/Konfiguration SCCM</t>
-  </si>
-  <si>
-    <t>3.5 Installation/Konfiguration WDS</t>
-  </si>
-  <si>
-    <t>3.6 OS-Verteilung konfigurieren</t>
-  </si>
-  <si>
-    <t>3.7 MS-Office-Verteilung konfigurieren</t>
-  </si>
-  <si>
-    <t>3.8 OS verteilen</t>
-  </si>
-  <si>
-    <t>3.9 MS-Office verteilen</t>
-  </si>
-  <si>
-    <t>3.10 Testsystem inistalisieren</t>
-  </si>
-  <si>
     <t>3.11 Tests durchführen</t>
-  </si>
-  <si>
-    <t>3.12 Bericht abschliessen+Reserve</t>
   </si>
   <si>
     <t>Total Aufwand SOLL</t>
@@ -150,27 +117,12 @@
     </r>
   </si>
   <si>
-    <t>1.7 Aufgabe/Anforderungen verfeinern</t>
-  </si>
-  <si>
-    <t>1.8 Lösungsvarianten/Entscheidungsmatrix</t>
-  </si>
-  <si>
-    <t>1.5 Situationsanalyse (Projektziele)</t>
-  </si>
-  <si>
-    <t>1.6 Situationsanalyse (Anforderungen)</t>
-  </si>
-  <si>
     <t>2.1 Architekturdiagram</t>
   </si>
   <si>
     <t>2.2 Use-Case Diagramm</t>
   </si>
   <si>
-    <t>2.3. Mockup</t>
-  </si>
-  <si>
     <t>2.4 Testkonzept erstellen</t>
   </si>
   <si>
@@ -217,6 +169,45 @@
   </si>
   <si>
     <t>06.01.21</t>
+  </si>
+  <si>
+    <t>2.3 Mockup</t>
+  </si>
+  <si>
+    <t>3.1 Projektumgebung erstellen</t>
+  </si>
+  <si>
+    <t>3.4 Einzelspieler Modus</t>
+  </si>
+  <si>
+    <t>3.2 Login</t>
+  </si>
+  <si>
+    <t>3.3 Homescreen</t>
+  </si>
+  <si>
+    <t>3.5 Mehrspieler Modus</t>
+  </si>
+  <si>
+    <t>3.6 Mehrspieler Modus mit Link</t>
+  </si>
+  <si>
+    <t>3.7 Mehrspieler Modus mit unbekanntem Spieler</t>
+  </si>
+  <si>
+    <t>3.8 Vergangene Spiele</t>
+  </si>
+  <si>
+    <t>1.6 Aufgabe/Anforderungen verfeinern</t>
+  </si>
+  <si>
+    <t>1.5 Projektziele definieren</t>
+  </si>
+  <si>
+    <t>1.7 Lösungsvarianten/Entscheidungsmatrix</t>
+  </si>
+  <si>
+    <t>3.12 Bericht abschliessen/Debugging</t>
   </si>
 </sst>
 </file>
@@ -266,7 +257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +267,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -452,6 +455,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,6 +501,18 @@
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,168 +794,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:X61"/>
+  <dimension ref="C2:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.1796875" customWidth="1"/>
     <col min="2" max="2" width="3.453125" customWidth="1"/>
     <col min="3" max="3" width="40.81640625" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" customWidth="1"/>
+    <col min="4" max="4" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="24" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="R2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" s="28" t="s">
+      <c r="S2" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>41</v>
+      <c r="V2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
+        <v>21</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
+        <v>18</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -966,22 +984,20 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18">
-        <f>SUM(G7:X7)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="18">
-        <f>SUM(G8:X8)</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="D7" s="19">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="31"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1001,11 +1017,11 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="20"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="9"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1025,18 +1041,16 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="18">
-        <f>SUM(G9:X9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="18">
-        <f>SUM(G10:X10)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="D9" s="19">
+        <v>3</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3</v>
+      </c>
+      <c r="F9" s="19">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1044,7 +1058,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1060,15 +1074,15 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="20"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="34"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1084,22 +1098,20 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21">
-        <f>SUM(G11:X11)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <f>SUM(G12:X12)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
+      <c r="D11" s="22">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1119,11 +1131,11 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="24"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1143,27 +1155,23 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="21">
-        <f>SUM(G13:X13)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <f>SUM(G14:X14)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="D13" s="22">
+        <v>1</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1178,10 +1186,10 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="20"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1202,27 +1210,23 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="21">
-        <f>SUM(G15:X15)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="21">
-        <f>SUM(G16:X16)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="C15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="22">
+        <v>1</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1237,10 +1241,10 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="20"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1261,27 +1265,23 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="21">
-        <f>SUM(G17:X17)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <f>SUM(G18:X18)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
+      <c r="C17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="22">
+        <v>1</v>
+      </c>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1296,10 +1296,10 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="20"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1320,20 +1320,16 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="18">
-        <f>SUM(G19:X19)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <f>SUM(G20:X20)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="C19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1341,7 +1337,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1355,77 +1351,75 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="14"/>
-    </row>
-    <row r="21" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="18">
-        <f>SUM(G21:X21)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="18">
-        <f>SUM(G22:X22)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="18">
-        <f>SUM($D$7:D21)-SUM($E$7:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="15"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="13"/>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="19">
+        <v>1</v>
+      </c>
       <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="F22" s="19">
+        <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
+        <v>6</v>
+      </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="16"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -1437,72 +1431,66 @@
       <c r="W22" s="8"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
+    <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="21"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="18">
-        <f>SUM(G24:X24)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
-        <f>SUM(G25:X25)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="18">
+      <c r="C24" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="19">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="15"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1523,20 +1511,16 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="18">
-        <f>SUM(G26:X26)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <f>SUM(G27:X27)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
+      <c r="C26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="19">
+        <v>4</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1545,7 +1529,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="32"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -1558,10 +1542,10 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1582,20 +1566,16 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="18">
-        <f>SUM(G28:X28)</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="18">
-        <f>SUM(G29:X29)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="18">
+      <c r="C28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="19">
+        <v>4</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1605,7 +1585,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="O28" s="32"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -1617,69 +1597,67 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="14"/>
-    </row>
-    <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="18">
-        <f>SUM(G30:X30)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="18">
-        <f>SUM(G31:X31)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="18">
-        <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="15"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="13"/>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
+      <c r="C31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="19">
+        <v>2</v>
+      </c>
       <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="F31" s="19">
+        <f>SUM($D$7:D31)-SUM($E$7:E31)</f>
+        <v>20</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1689,7 +1667,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="P31" s="31"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -1699,72 +1677,66 @@
       <c r="W31" s="8"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="12"/>
+    <row r="32" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="21"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="14"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="18">
-        <f>SUM(G33:X33)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="18">
-        <f>SUM(G34:X34)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="C33" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="19">
+        <v>4</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="15"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="20"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1785,20 +1757,16 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="18">
-        <f>SUM(G35:X35)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="18">
-        <f>SUM(G36:X36)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="C35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="19">
+        <v>2</v>
+      </c>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1810,7 +1778,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="Q35" s="32"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
@@ -1820,10 +1788,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="20"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1844,20 +1812,16 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="18">
-        <f>SUM(G37:X37)</f>
-        <v>0</v>
-      </c>
-      <c r="E37" s="18">
-        <f>SUM(G38:X38)</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="C37" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="19">
+        <v>8</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1869,8 +1833,8 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -1879,10 +1843,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="20"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1903,20 +1867,16 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="18">
-        <f>SUM(G39:X39)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="18">
-        <f>SUM(G40:X40)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="18">
+      <c r="C39" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="19">
+        <v>16</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1929,19 +1889,19 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="20"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1962,20 +1922,16 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="18">
-        <f>SUM(G41:X41)</f>
-        <v>0</v>
-      </c>
-      <c r="E41" s="18">
-        <f>SUM(G42:X42)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
+      <c r="C41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="19">
+        <v>4</v>
+      </c>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1990,17 +1946,17 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
+      <c r="T41" s="32"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="20"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2021,20 +1977,16 @@
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="18">
-        <f>SUM(G43:X43)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <f>SUM(G44:X44)</f>
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
+      <c r="C43" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="19">
+        <v>4</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2050,16 +2002,16 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="U43" s="32"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="20"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2080,20 +2032,16 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="18">
-        <f>SUM(G45:X45)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="18">
-        <f>SUM(G46:X46)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="18">
+      <c r="C45" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="19">
+        <v>4</v>
+      </c>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2110,15 +2058,15 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
+      <c r="V45" s="32"/>
       <c r="W45" s="10"/>
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="20"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2139,20 +2087,16 @@
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47" s="18">
-        <f>SUM(G47:X47)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="18">
-        <f>SUM(G48:X48)</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="18">
+      <c r="C47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="19">
+        <v>2</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2170,14 +2114,14 @@
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
+      <c r="W47" s="32"/>
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="20"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2198,20 +2142,16 @@
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="18">
-        <f>SUM(G49:X49)</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="18">
-        <f>SUM(G50:X50)</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="18">
+      <c r="C49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="19">
+        <v>8</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2229,268 +2169,91 @@
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="15"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="33"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="20"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="9"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="14"/>
-    </row>
-    <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="18">
-        <f>SUM(G51:X51)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="18">
-        <f>SUM(G52:X52)</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="18">
-        <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>0</v>
-      </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="15"/>
-    </row>
-    <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="20"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="9"/>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="14"/>
-    </row>
-    <row r="53" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C53" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="18">
-        <f>SUM(G53:X53)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="18">
-        <f>SUM(G54:X54)</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="18">
-        <f>SUM($D$7:D53)-SUM($E$7:E53)</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="15"/>
-    </row>
-    <row r="54" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C54" s="20"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="9"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="14"/>
-    </row>
-    <row r="55" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C55" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D55" s="18">
-        <f>SUM(G55:X55)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="18">
-        <f>SUM(G56:X56)</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <f>SUM($D$7:D55)-SUM($E$7:E55)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="15"/>
-    </row>
-    <row r="56" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C56" s="20"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="8"/>
-      <c r="L56" s="8"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="13"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="3"/>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C59" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D59" s="7">
-        <f>SUM(D7:D56)</f>
-        <v>0</v>
-      </c>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C60" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="7">
-        <f>SUM(E7:E56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C61" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="16">
-        <f>D59-E60</f>
-        <v>0</v>
-      </c>
-      <c r="E61" s="17"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="13"/>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C53" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="7">
+        <f>SUM(D7:D50)</f>
+        <v>79</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="7">
+        <f>SUM(E7:E50)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="17">
+        <f>D53-E54</f>
+        <v>72</v>
+      </c>
+      <c r="E55" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="106">
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
@@ -2502,7 +2265,6 @@
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -2513,78 +2275,67 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
     <mergeCell ref="F24:F25"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
     <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="D37:D38"/>
     <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D49:D50"/>
     <mergeCell ref="E49:E50"/>
     <mergeCell ref="F49:F50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="D13:D14"/>

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC20A6-B7B4-494A-86C9-29C090BA3DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BBF21B-6768-45D2-A335-9F7921A1E356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>1.7 Lösungsvarianten/Entscheidungsmatrix</t>
   </si>
   <si>
-    <t>3.12 Bericht abschliessen/Debugging</t>
+    <t>3.12 Bericht abschliessen/Debugging/Buffer</t>
   </si>
 </sst>
 </file>
@@ -216,8 +216,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="dd\.mm\.yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -460,11 +460,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,8 +481,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,8 +496,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -496,23 +508,11 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +797,7 @@
   <dimension ref="C2:X55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG21" sqref="AG21"/>
+      <selection activeCell="AF18" sqref="AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -805,9 +805,7 @@
     <col min="1" max="1" width="3.1796875" customWidth="1"/>
     <col min="2" max="2" width="3.453125" customWidth="1"/>
     <col min="3" max="3" width="40.81640625" customWidth="1"/>
-    <col min="4" max="4" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.54296875" customWidth="1"/>
     <col min="7" max="24" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -815,67 +813,67 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="X2" s="31" t="s">
         <v>25</v>
       </c>
     </row>
@@ -883,79 +881,79 @@
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="30"/>
-      <c r="X5" s="30"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -987,17 +985,17 @@
       <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="22">
         <v>3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="22">
         <v>3</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="22">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="31"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1018,10 +1016,10 @@
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="34"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1044,13 +1042,13 @@
       <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="22">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1058,7 +1056,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="32"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1075,14 +1073,14 @@
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1098,20 +1096,20 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="25">
         <v>1</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="25">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1131,11 +1129,11 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="25"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="34"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1158,20 +1156,21 @@
       <c r="C13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22">
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="32"/>
+      <c r="K13" s="18"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1187,14 +1186,14 @@
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="21"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1213,20 +1212,19 @@
       <c r="C15" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22">
+      <c r="E15" s="25"/>
+      <c r="F15" s="25">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="32"/>
+      <c r="K15" s="18"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1242,9 +1240,9 @@
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="21"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1268,20 +1266,20 @@
       <c r="C17" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="25">
         <v>1</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="32"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1297,9 +1295,9 @@
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1323,21 +1321,20 @@
       <c r="C19" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="22">
         <v>2</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="32"/>
+      <c r="L19" s="18"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1352,9 +1349,9 @@
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1404,21 +1401,20 @@
       <c r="C22" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="22">
         <v>1</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="17"/>
       <c r="N22" s="16"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
@@ -1433,9 +1429,9 @@
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1459,13 +1455,13 @@
       <c r="C24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="22">
         <v>4</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
@@ -1473,8 +1469,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="32"/>
+      <c r="M24" s="18"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -1488,9 +1483,9 @@
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1514,13 +1509,13 @@
       <c r="C26" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="22">
         <v>4</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1529,7 +1524,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="32"/>
+      <c r="N26" s="18"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -1543,9 +1538,9 @@
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="21"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1569,13 +1564,13 @@
       <c r="C28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="22">
         <v>4</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1585,7 +1580,7 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
-      <c r="O28" s="32"/>
+      <c r="O28" s="18"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -1598,9 +1593,9 @@
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="21"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -1650,13 +1645,13 @@
       <c r="C31" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="22">
         <v>2</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22">
         <f>SUM($D$7:D31)-SUM($E$7:E31)</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -1667,7 +1662,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="31"/>
+      <c r="P31" s="17"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -1679,9 +1674,9 @@
     </row>
     <row r="32" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="21"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
@@ -1705,13 +1700,13 @@
       <c r="C33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="22">
         <v>4</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19">
+      <c r="E33" s="22"/>
+      <c r="F33" s="22">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1722,8 +1717,8 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
       <c r="T33" s="10"/>
@@ -1734,9 +1729,9 @@
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="21"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1760,13 +1755,13 @@
       <c r="C35" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="22">
         <v>2</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1778,7 +1773,7 @@
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
-      <c r="Q35" s="32"/>
+      <c r="Q35" s="18"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
@@ -1789,9 +1784,9 @@
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="21"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1815,13 +1810,13 @@
       <c r="C37" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="22">
         <v>8</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19">
+      <c r="E37" s="22"/>
+      <c r="F37" s="22">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1833,8 +1828,8 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -1844,9 +1839,9 @@
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="21"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1870,13 +1865,13 @@
       <c r="C39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="22">
         <v>16</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19">
+      <c r="E39" s="22"/>
+      <c r="F39" s="22">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1889,9 +1884,9 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
@@ -1899,9 +1894,9 @@
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="21"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1925,13 +1920,13 @@
       <c r="C41" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="22">
         <v>4</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19">
+      <c r="E41" s="22"/>
+      <c r="F41" s="22">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1946,7 +1941,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
-      <c r="T41" s="32"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
@@ -1954,9 +1949,9 @@
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="21"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -1980,13 +1975,13 @@
       <c r="C43" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="22">
         <v>4</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19">
+      <c r="E43" s="22"/>
+      <c r="F43" s="22">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2002,16 +1997,16 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
       <c r="T43" s="10"/>
-      <c r="U43" s="32"/>
+      <c r="U43" s="18"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="21"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2035,13 +2030,13 @@
       <c r="C45" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="19">
+      <c r="D45" s="22">
         <v>4</v>
       </c>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2058,15 +2053,15 @@
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
       <c r="U45" s="10"/>
-      <c r="V45" s="32"/>
+      <c r="V45" s="18"/>
       <c r="W45" s="10"/>
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="21"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2090,13 +2085,13 @@
       <c r="C47" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="19">
+      <c r="D47" s="22">
         <v>2</v>
       </c>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19">
+      <c r="E47" s="22"/>
+      <c r="F47" s="22">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2114,14 +2109,14 @@
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
-      <c r="W47" s="32"/>
+      <c r="W47" s="18"/>
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="21"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2145,11 +2140,11 @@
       <c r="C49" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="19">
-        <v>8</v>
-      </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19">
+      <c r="D49" s="22">
+        <v>9</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
         <v>72</v>
       </c>
@@ -2169,14 +2164,14 @@
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="33"/>
+      <c r="W49" s="18"/>
+      <c r="X49" s="19"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="21"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
@@ -2228,7 +2223,7 @@
       </c>
       <c r="D53" s="7">
         <f>SUM(D7:D50)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" s="7"/>
     </row>
@@ -2239,71 +2234,53 @@
       <c r="D54" s="6"/>
       <c r="E54" s="7">
         <f>SUM(E7:E50)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="17">
+      <c r="D55" s="29">
         <f>D53-E54</f>
         <v>72</v>
       </c>
-      <c r="E55" s="18"/>
+      <c r="E55" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="106">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
@@ -2328,38 +2305,56 @@
     <mergeCell ref="D45:D46"/>
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="D39:D40"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,6 +2363,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C9F4249773A24249BE9B3F9411B0C18E" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="908aab9b8dae649c95f0c610c75bf370">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1c1be76-b8f0-4a5d-8f83-f5e69c993518" xmlns:ns3="55687998-474e-4d50-81ff-7419a1059b69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93a8bac063dcadd72e577fd6b72d2684" ns2:_="" ns3:_="">
     <xsd:import namespace="b1c1be76-b8f0-4a5d-8f83-f5e69c993518"/>
@@ -2578,22 +2588,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722931B3-5BF4-4EBD-A6E8-DCBD3D14791B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2610,21 +2622,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BBF21B-6768-45D2-A335-9F7921A1E356}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D82200-E978-4424-A2BA-12DB64A84770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28845" yWindow="4890" windowWidth="18345" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Aufwand SOLL</t>
   </si>
@@ -120,12 +120,6 @@
     <t>2.1 Architekturdiagram</t>
   </si>
   <si>
-    <t>2.2 Use-Case Diagramm</t>
-  </si>
-  <si>
-    <t>2.4 Testkonzept erstellen</t>
-  </si>
-  <si>
     <t>22.01.21</t>
   </si>
   <si>
@@ -171,9 +165,6 @@
     <t>06.01.21</t>
   </si>
   <si>
-    <t>2.3 Mockup</t>
-  </si>
-  <si>
     <t>3.1 Projektumgebung erstellen</t>
   </si>
   <si>
@@ -208,6 +199,18 @@
   </si>
   <si>
     <t>3.12 Bericht abschliessen/Debugging/Buffer</t>
+  </si>
+  <si>
+    <t>2.2 Informationssicherheit und Datenschutz (ISDS)</t>
+  </si>
+  <si>
+    <t>2.3 Use-Case Diagramm</t>
+  </si>
+  <si>
+    <t>2.4 Mockup</t>
+  </si>
+  <si>
+    <t>2.5 Testkonzept erstellen</t>
   </si>
 </sst>
 </file>
@@ -472,8 +475,23 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,14 +499,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -496,23 +514,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,17 +797,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:X55"/>
+  <dimension ref="C2:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF18" sqref="AF18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.1796875" customWidth="1"/>
     <col min="2" max="2" width="3.453125" customWidth="1"/>
-    <col min="3" max="3" width="40.81640625" customWidth="1"/>
+    <col min="3" max="3" width="43.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="4.54296875" customWidth="1"/>
     <col min="7" max="24" width="2.7265625" customWidth="1"/>
   </cols>
@@ -813,147 +816,147 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="33" t="s">
+      <c r="H2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="J2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="K2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="L2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="33" t="s">
+      <c r="O2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="P2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="Q2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="R2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="S2" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="31" t="s">
+      <c r="V2" s="23" t="s">
         <v>25</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -982,16 +985,16 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="27">
         <v>3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="27">
         <v>3</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="27">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1015,10 +1018,10 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="20"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1039,16 +1042,16 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="27">
         <v>3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="27">
         <v>3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="27">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1072,10 +1075,10 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1096,16 +1099,16 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="29">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="29">
         <v>1</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="29">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1129,10 +1132,10 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="28"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
       <c r="G12" s="20"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1153,16 +1156,16 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="29">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="29">
         <v>1</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="29">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1185,10 +1188,10 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="21"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1209,16 +1212,18 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="25">
+      <c r="C15" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="29">
         <v>1</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25">
+      <c r="E15" s="29">
+        <v>1</v>
+      </c>
+      <c r="F15" s="29">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
@@ -1239,15 +1244,15 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="21"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1263,16 +1268,16 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="25">
+      <c r="C17" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="29">
         <v>1</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25">
+      <c r="E17" s="29"/>
+      <c r="F17" s="29">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1294,10 +1299,10 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="21"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1318,16 +1323,16 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="C19" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="27">
         <v>2</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22">
+      <c r="E19" s="27"/>
+      <c r="F19" s="27">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1348,10 +1353,10 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1398,16 +1403,16 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="27">
         <v>1</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22">
+      <c r="E22" s="27"/>
+      <c r="F22" s="27">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1428,10 +1433,10 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1452,40 +1457,40 @@
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="22">
-        <v>4</v>
-      </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22">
+      <c r="C24" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
-        <v>9</v>
-      </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="18"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="17"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="13"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1506,16 +1511,16 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="22">
+      <c r="C26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="27">
         <v>4</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22">
+      <c r="E26" s="27"/>
+      <c r="F26" s="27">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1523,8 +1528,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="18"/>
+      <c r="M26" s="18"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -1537,10 +1541,10 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1561,16 +1565,16 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="27">
         <v>4</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22">
+      <c r="E28" s="27"/>
+      <c r="F28" s="27">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1579,8 +1583,8 @@
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
@@ -1592,67 +1596,65 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="13"/>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="12"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="14"/>
+    </row>
+    <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="27">
+        <v>4</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27">
+        <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
+        <v>17</v>
+      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="15"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31" s="22">
-        <v>2</v>
-      </c>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22">
-        <f>SUM($D$7:D31)-SUM($E$7:E31)</f>
-        <v>19</v>
-      </c>
+      <c r="C31" s="31"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1662,7 +1664,7 @@
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="17"/>
+      <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -1672,66 +1674,68 @@
       <c r="W31" s="8"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="32" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="21"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="14"/>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="22">
-        <v>4</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22">
+      <c r="C33" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="27">
+        <v>2</v>
+      </c>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>23</v>
-      </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="15"/>
+        <v>19</v>
+      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="13"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1752,16 +1756,16 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="22">
-        <v>2</v>
-      </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22">
+      <c r="C35" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="27">
+        <v>4</v>
+      </c>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1772,7 +1776,7 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
+      <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
@@ -1783,10 +1787,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1807,16 +1811,16 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37" s="22">
-        <v>8</v>
-      </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22">
+      <c r="C37" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="27">
+        <v>2</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1829,7 +1833,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
       <c r="U37" s="10"/>
@@ -1838,10 +1842,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1862,16 +1866,16 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="22">
-        <v>16</v>
-      </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22">
+      <c r="C39" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="27">
+        <v>8</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1883,20 +1887,20 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1917,16 +1921,16 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="22">
-        <v>4</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22">
+      <c r="C41" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="27">
+        <v>16</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1939,8 +1943,8 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
       <c r="T41" s="18"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
@@ -1948,10 +1952,10 @@
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="21"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -1972,16 +1976,16 @@
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="22">
+      <c r="C43" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="27">
         <v>4</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22">
+      <c r="E43" s="27"/>
+      <c r="F43" s="27">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -1996,17 +2000,17 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="21"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2027,16 +2031,16 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="22">
+      <c r="C45" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="27">
         <v>4</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22">
+      <c r="E45" s="27"/>
+      <c r="F45" s="27">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2052,16 +2056,16 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="21"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2082,16 +2086,16 @@
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="22">
-        <v>2</v>
-      </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22">
+      <c r="C47" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="27">
+        <v>4</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2108,15 +2112,15 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="10"/>
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="21"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2137,16 +2141,16 @@
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="22">
-        <v>9</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22">
+      <c r="C49" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="27">
+        <v>2</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2165,175 +2169,154 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="18"/>
-      <c r="X49" s="19"/>
+      <c r="X49" s="15"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="21"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="13"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C51" s="1" t="s">
+      <c r="C50" s="31"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="14"/>
+    </row>
+    <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="27">
+        <v>8</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27">
+        <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
+        <v>71</v>
+      </c>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="19"/>
+    </row>
+    <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="31"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="13"/>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="3"/>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C53" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="7">
-        <f>SUM(D7:D50)</f>
-        <v>80</v>
-      </c>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C54" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="7">
-        <f>SUM(E7:E50)</f>
-        <v>8</v>
-      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="3"/>
     </row>
     <row r="55" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C55" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="7">
+        <f>SUM(D7:D52)</f>
+        <v>80</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C56" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7">
+        <f>SUM(E7:E52)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="29">
-        <f>D53-E54</f>
-        <v>72</v>
-      </c>
-      <c r="E55" s="30"/>
+      <c r="D57" s="25">
+        <f>D55-E56</f>
+        <v>71</v>
+      </c>
+      <c r="E57" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
+  <mergeCells count="110">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D17:D18"/>
@@ -2346,15 +2329,95 @@
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2363,21 +2426,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C9F4249773A24249BE9B3F9411B0C18E" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="908aab9b8dae649c95f0c610c75bf370">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1c1be76-b8f0-4a5d-8f83-f5e69c993518" xmlns:ns3="55687998-474e-4d50-81ff-7419a1059b69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93a8bac063dcadd72e577fd6b72d2684" ns2:_="" ns3:_="">
     <xsd:import namespace="b1c1be76-b8f0-4a5d-8f83-f5e69c993518"/>
@@ -2588,24 +2636,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722931B3-5BF4-4EBD-A6E8-DCBD3D14791B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2622,4 +2668,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D82200-E978-4424-A2BA-12DB64A84770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F38596-1E8D-4F97-B1AC-520AB508E7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28845" yWindow="4890" windowWidth="18345" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,9 +91,6 @@
     <t>Zeitplan Tic-Tac-Toe Multiplayer</t>
   </si>
   <si>
-    <t>5. Einführung (Nicht Teil der Aufgabe)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>2.5 Testkonzept erstellen</t>
+  </si>
+  <si>
+    <t>4. Einführung (Nicht Teil der Aufgabe)</t>
   </si>
 </sst>
 </file>
@@ -475,11 +475,35 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -487,35 +511,11 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,147 +816,147 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="M2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="P2" s="21" t="s">
+      <c r="O2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="P2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="Q2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="R2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="S2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="T2" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="23" t="s">
+      <c r="V2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="W2" s="31" t="s">
         <v>23</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+        <v>20</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -985,16 +985,16 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="22">
         <v>3</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="22">
         <v>3</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1018,10 +1018,10 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="31"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="20"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1042,16 +1042,16 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="22">
         <v>3</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="22">
         <v>3</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1075,10 +1075,10 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="31"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1099,16 +1099,16 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="25">
         <v>1</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="25">
         <v>1</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1132,10 +1132,10 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="33"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="20"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1156,16 +1156,16 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="25">
         <v>1</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="25">
         <v>1</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="25">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="31"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1212,16 +1212,16 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="29">
+      <c r="C15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="25">
         <v>1</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="25">
         <v>1</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -1244,10 +1244,10 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="31"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1268,14 +1268,14 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="29">
+      <c r="C17" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="25">
         <v>1</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>1</v>
       </c>
@@ -1299,10 +1299,10 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1323,14 +1323,14 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="27">
+      <c r="C19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="22">
         <v>2</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27">
+      <c r="E19" s="22"/>
+      <c r="F19" s="22">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
         <v>3</v>
       </c>
@@ -1353,10 +1353,10 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="31"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1403,14 +1403,14 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="27">
+      <c r="C22" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="22">
         <v>1</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27">
+      <c r="E22" s="22"/>
+      <c r="F22" s="22">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>4</v>
       </c>
@@ -1433,10 +1433,10 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="31"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1457,14 +1457,14 @@
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27">
+      <c r="E24" s="22"/>
+      <c r="F24" s="22">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>5</v>
       </c>
@@ -1487,10 +1487,10 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="31"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1511,14 +1511,14 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="27">
+      <c r="C26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="22">
         <v>4</v>
       </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27">
+      <c r="E26" s="22"/>
+      <c r="F26" s="22">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>9</v>
       </c>
@@ -1541,10 +1541,10 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="31"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1565,14 +1565,14 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="27">
+      <c r="C28" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="22">
         <v>4</v>
       </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27">
+      <c r="E28" s="22"/>
+      <c r="F28" s="22">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
         <v>13</v>
       </c>
@@ -1596,10 +1596,10 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="31"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1620,14 +1620,14 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="27">
+      <c r="C30" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="22">
         <v>4</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
         <v>17</v>
       </c>
@@ -1651,10 +1651,10 @@
       <c r="X30" s="15"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="31"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1701,14 +1701,14 @@
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="27">
+      <c r="C33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="22">
         <v>2</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27">
+      <c r="E33" s="22"/>
+      <c r="F33" s="22">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
         <v>19</v>
       </c>
@@ -1732,10 +1732,10 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="31"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1756,14 +1756,14 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="27">
+      <c r="C35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="22">
         <v>4</v>
       </c>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27">
+      <c r="E35" s="22"/>
+      <c r="F35" s="22">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
         <v>23</v>
       </c>
@@ -1787,10 +1787,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="31"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1811,14 +1811,14 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="27">
+      <c r="C37" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="22">
         <v>2</v>
       </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27">
+      <c r="E37" s="22"/>
+      <c r="F37" s="22">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
         <v>25</v>
       </c>
@@ -1842,10 +1842,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="31"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1866,14 +1866,14 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="27">
+      <c r="C39" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="22">
         <v>8</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27">
+      <c r="E39" s="22"/>
+      <c r="F39" s="22">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
         <v>33</v>
       </c>
@@ -1897,10 +1897,10 @@
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="31"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1921,14 +1921,14 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="27">
+      <c r="C41" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="22">
         <v>16</v>
       </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27">
+      <c r="E41" s="22"/>
+      <c r="F41" s="22">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
         <v>49</v>
       </c>
@@ -1952,10 +1952,10 @@
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="31"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -1976,14 +1976,14 @@
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="27">
+      <c r="C43" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="22">
         <v>4</v>
       </c>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27">
+      <c r="E43" s="22"/>
+      <c r="F43" s="22">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
         <v>53</v>
       </c>
@@ -2007,10 +2007,10 @@
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="31"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2031,14 +2031,14 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D45" s="27">
+      <c r="C45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="22">
         <v>4</v>
       </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
         <v>57</v>
       </c>
@@ -2062,10 +2062,10 @@
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="31"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2086,14 +2086,14 @@
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="27">
+      <c r="C47" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="22">
         <v>4</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27">
+      <c r="E47" s="22"/>
+      <c r="F47" s="22">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
         <v>61</v>
       </c>
@@ -2117,10 +2117,10 @@
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="31"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2141,14 +2141,14 @@
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="22">
         <v>2</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27">
+      <c r="E49" s="22"/>
+      <c r="F49" s="22">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
         <v>63</v>
       </c>
@@ -2172,10 +2172,10 @@
       <c r="X49" s="15"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="31"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2196,14 +2196,14 @@
       <c r="X50" s="14"/>
     </row>
     <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="D51" s="27">
+      <c r="C51" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="22">
         <v>8</v>
       </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27">
+      <c r="E51" s="22"/>
+      <c r="F51" s="22">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
         <v>71</v>
       </c>
@@ -2227,10 +2227,10 @@
       <c r="X51" s="19"/>
     </row>
     <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="31"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -2300,65 +2300,49 @@
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="25">
+      <c r="D57" s="29">
         <f>D55-E56</f>
         <v>71</v>
       </c>
-      <c r="E57" s="26"/>
+      <c r="E57" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
@@ -2383,41 +2367,57 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2426,6 +2426,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C9F4249773A24249BE9B3F9411B0C18E" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="908aab9b8dae649c95f0c610c75bf370">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1c1be76-b8f0-4a5d-8f83-f5e69c993518" xmlns:ns3="55687998-474e-4d50-81ff-7419a1059b69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93a8bac063dcadd72e577fd6b72d2684" ns2:_="" ns3:_="">
     <xsd:import namespace="b1c1be76-b8f0-4a5d-8f83-f5e69c993518"/>
@@ -2636,22 +2651,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722931B3-5BF4-4EBD-A6E8-DCBD3D14791B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2668,21 +2685,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F38596-1E8D-4F97-B1AC-520AB508E7FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B0177-CA38-449E-85EA-3C8CD79A6556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28845" yWindow="4890" windowWidth="18345" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -516,6 +516,15 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,7 +834,7 @@
       <c r="F2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="33" t="s">
@@ -887,7 +896,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
-      <c r="G3" s="33"/>
+      <c r="G3" s="35"/>
       <c r="H3" s="33"/>
       <c r="I3" s="33"/>
       <c r="J3" s="33"/>
@@ -913,7 +922,7 @@
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
-      <c r="G4" s="33"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="33"/>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
@@ -939,7 +948,7 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
-      <c r="G5" s="34"/>
+      <c r="G5" s="36"/>
       <c r="H5" s="34"/>
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
@@ -1174,6 +1183,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="18"/>
+      <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1230,6 +1240,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="18"/>
+      <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1274,10 +1285,12 @@
       <c r="D17" s="25">
         <v>1</v>
       </c>
-      <c r="E17" s="25"/>
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
       <c r="F17" s="25">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -1308,7 +1321,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1329,10 +1342,12 @@
       <c r="D19" s="22">
         <v>2</v>
       </c>
-      <c r="E19" s="22"/>
+      <c r="E19" s="22">
+        <v>2</v>
+      </c>
       <c r="F19" s="22">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
@@ -1362,7 +1377,7 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -1409,10 +1424,12 @@
       <c r="D22" s="22">
         <v>1</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="22">
+        <v>1</v>
+      </c>
       <c r="F22" s="22">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1442,7 +1459,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="20"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -1463,10 +1480,12 @@
       <c r="D24" s="22">
         <v>1</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="22">
+        <v>1</v>
+      </c>
       <c r="F24" s="22">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
@@ -1496,7 +1515,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="L25" s="20"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -1517,10 +1536,12 @@
       <c r="D26" s="22">
         <v>4</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="22">
+        <v>1</v>
+      </c>
       <c r="F26" s="22">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
@@ -1550,8 +1571,8 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
@@ -1574,7 +1595,7 @@
       <c r="E28" s="22"/>
       <c r="F28" s="22">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1629,7 +1650,7 @@
       <c r="E30" s="22"/>
       <c r="F30" s="22">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -1710,7 +1731,7 @@
       <c r="E33" s="22"/>
       <c r="F33" s="22">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1765,7 +1786,7 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1820,7 +1841,7 @@
       <c r="E37" s="22"/>
       <c r="F37" s="22">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1875,7 +1896,7 @@
       <c r="E39" s="22"/>
       <c r="F39" s="22">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1930,7 +1951,7 @@
       <c r="E41" s="22"/>
       <c r="F41" s="22">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1985,7 +2006,7 @@
       <c r="E43" s="22"/>
       <c r="F43" s="22">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2040,7 +2061,7 @@
       <c r="E45" s="22"/>
       <c r="F45" s="22">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2095,7 +2116,7 @@
       <c r="E47" s="22"/>
       <c r="F47" s="22">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2150,7 +2171,7 @@
       <c r="E49" s="22"/>
       <c r="F49" s="22">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2205,7 +2226,7 @@
       <c r="E51" s="22"/>
       <c r="F51" s="22">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2293,7 +2314,7 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.35">
@@ -2302,7 +2323,7 @@
       </c>
       <c r="D57" s="29">
         <f>D55-E56</f>
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E57" s="30"/>
     </row>

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96B0177-CA38-449E-85EA-3C8CD79A6556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6976779-DCD8-4A7B-8A9A-07A3F1F0D695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,7 +286,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -423,11 +423,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -460,9 +469,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -475,6 +481,32 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -522,9 +554,6 @@
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,7 +838,7 @@
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -825,67 +854,67 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="40" t="s">
         <v>22</v>
       </c>
     </row>
@@ -893,79 +922,79 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="32"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -994,20 +1023,20 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="31">
         <v>3</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="31">
         <v>3</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="31">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1027,11 +1056,11 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="21"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="20"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1051,16 +1080,16 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="31">
         <v>3</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="31">
         <v>3</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="31">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1068,7 +1097,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
-      <c r="K9" s="18"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
@@ -1084,15 +1113,15 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="21"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="20"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1108,20 +1137,20 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="34">
         <v>1</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="34">
         <v>1</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="34">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="17"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1141,11 +1170,11 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="28"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="20"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1165,16 +1194,16 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="34">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="34">
         <v>1</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="34">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1182,7 +1211,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="18"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
@@ -1198,15 +1227,15 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="21"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="20"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1222,16 +1251,16 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="34">
         <v>1</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="34">
         <v>1</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="34">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -1239,7 +1268,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
-      <c r="K15" s="18"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
@@ -1255,15 +1284,15 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="21"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1279,16 +1308,16 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="34">
         <v>1</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="34">
         <v>1</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="34">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>0</v>
       </c>
@@ -1297,7 +1326,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="18"/>
+      <c r="L17" s="17"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1312,16 +1341,16 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="21"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="20"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -1336,16 +1365,16 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="31">
         <v>2</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="31">
         <v>2</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="31">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
         <v>0</v>
       </c>
@@ -1354,7 +1383,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="18"/>
+      <c r="L19" s="17"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1368,16 +1397,16 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="37"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -1418,16 +1447,16 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="31">
         <v>1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="31">
         <v>1</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="31">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>0</v>
       </c>
@@ -1436,8 +1465,9 @@
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="17"/>
-      <c r="N22" s="16"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="27"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
@@ -1450,18 +1480,18 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="21"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -1474,16 +1504,16 @@
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="31">
         <v>1</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="31">
         <v>1</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="31">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>0</v>
       </c>
@@ -1492,8 +1522,9 @@
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="17"/>
-      <c r="N24" s="16"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="27"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
@@ -1506,18 +1537,18 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -1530,25 +1561,25 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="31">
         <v>4</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="31">
+        <v>3</v>
+      </c>
+      <c r="F26" s="31">
+        <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>1</v>
-      </c>
-      <c r="F26" s="22">
-        <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
-        <v>3</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="18"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
@@ -1562,18 +1593,18 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="21"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="9"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -1586,25 +1617,25 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="31">
         <v>4</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="18"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="22"/>
       <c r="O28" s="10"/>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -1617,18 +1648,18 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -1641,26 +1672,26 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="31">
         <v>4</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="18"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="17"/>
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
@@ -1672,18 +1703,18 @@
       <c r="X30" s="15"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="21"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="24"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -1722,16 +1753,16 @@
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="31">
         <v>2</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22">
+      <c r="E33" s="31"/>
+      <c r="F33" s="31">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1742,7 +1773,7 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="17"/>
+      <c r="P33" s="16"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -1753,10 +1784,10 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="21"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1777,16 +1808,16 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="31">
         <v>4</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22">
+      <c r="E35" s="31"/>
+      <c r="F35" s="31">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1797,8 +1828,8 @@
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
       <c r="R35" s="10"/>
       <c r="S35" s="10"/>
       <c r="T35" s="10"/>
@@ -1808,10 +1839,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="21"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1832,16 +1863,16 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="31">
         <v>2</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22">
+      <c r="E37" s="31"/>
+      <c r="F37" s="31">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1853,7 +1884,7 @@
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
-      <c r="Q37" s="18"/>
+      <c r="Q37" s="17"/>
       <c r="R37" s="10"/>
       <c r="S37" s="10"/>
       <c r="T37" s="10"/>
@@ -1863,10 +1894,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="21"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1887,16 +1918,16 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="31">
         <v>8</v>
       </c>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22">
+      <c r="E39" s="31"/>
+      <c r="F39" s="31">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1908,8 +1939,8 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
       <c r="S39" s="10"/>
       <c r="T39" s="10"/>
       <c r="U39" s="10"/>
@@ -1918,10 +1949,10 @@
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1942,16 +1973,16 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="31">
         <v>16</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22">
+      <c r="E41" s="31"/>
+      <c r="F41" s="31">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -1964,19 +1995,19 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="21"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -1997,16 +2028,16 @@
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="31">
         <v>4</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22">
+      <c r="E43" s="31"/>
+      <c r="F43" s="31">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2021,17 +2052,17 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
-      <c r="T43" s="18"/>
+      <c r="T43" s="17"/>
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="21"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2052,16 +2083,16 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="31">
         <v>4</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22">
+      <c r="E45" s="31"/>
+      <c r="F45" s="31">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2077,16 +2108,16 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
       <c r="T45" s="10"/>
-      <c r="U45" s="18"/>
+      <c r="U45" s="17"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="21"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2107,16 +2138,16 @@
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="31">
         <v>4</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22">
+      <c r="E47" s="31"/>
+      <c r="F47" s="31">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2133,15 +2164,15 @@
       <c r="S47" s="10"/>
       <c r="T47" s="10"/>
       <c r="U47" s="10"/>
-      <c r="V47" s="18"/>
+      <c r="V47" s="17"/>
       <c r="W47" s="10"/>
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="21"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2162,16 +2193,16 @@
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="31">
         <v>2</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22">
+      <c r="E49" s="31"/>
+      <c r="F49" s="31">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2189,14 +2220,14 @@
       <c r="T49" s="10"/>
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
-      <c r="W49" s="18"/>
+      <c r="W49" s="17"/>
       <c r="X49" s="15"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="21"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2217,16 +2248,16 @@
       <c r="X50" s="14"/>
     </row>
     <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="22">
+      <c r="D51" s="31">
         <v>8</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22">
+      <c r="E51" s="31"/>
+      <c r="F51" s="31">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2244,14 +2275,14 @@
       <c r="T51" s="10"/>
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="19"/>
+      <c r="W51" s="17"/>
+      <c r="X51" s="18"/>
     </row>
     <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="21"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2314,18 +2345,18 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="38">
         <f>D55-E56</f>
-        <v>65</v>
-      </c>
-      <c r="E57" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="E57" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="110">

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6976779-DCD8-4A7B-8A9A-07A3F1F0D695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D8E1D-9D2D-4598-B74D-40F2F853BB6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -507,53 +507,56 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,165 +841,165 @@
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="E30" sqref="E30:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" customWidth="1"/>
-    <col min="3" max="3" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.54296875" customWidth="1"/>
-    <col min="7" max="24" width="2.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.5703125" customWidth="1"/>
+    <col min="7" max="24" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="42" t="s">
+      <c r="H2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="42" t="s">
+      <c r="J2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="40" t="s">
+      <c r="U2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="40" t="s">
+      <c r="V2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-    </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-    </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-    </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.35">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,17 +1025,17 @@
       <c r="W6" s="2"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="30" t="s">
+    <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="38">
         <v>3</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="38">
         <v>3</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="38">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1055,11 +1058,11 @@
       <c r="W7" s="8"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="30"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+    <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="42"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1079,17 +1082,17 @@
       <c r="W8" s="9"/>
       <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="30" t="s">
+    <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="38">
         <v>3</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="38">
         <v>3</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="38">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1112,11 +1115,11 @@
       <c r="W9" s="10"/>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="30"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
+    <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="42"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1136,17 +1139,17 @@
       <c r="W10" s="9"/>
       <c r="X10" s="14"/>
     </row>
-    <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="36" t="s">
+    <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="40">
         <v>1</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="40">
         <v>1</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="40">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1169,11 +1172,11 @@
       <c r="W11" s="10"/>
       <c r="X11" s="15"/>
     </row>
-    <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="37"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+    <row r="12" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="44"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1193,17 +1196,17 @@
       <c r="W12" s="9"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="30" t="s">
+    <row r="13" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="40">
         <v>1</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="40">
         <v>1</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="40">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1226,11 +1229,11 @@
       <c r="W13" s="10"/>
       <c r="X13" s="15"/>
     </row>
-    <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="30"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+    <row r="14" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="42"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1250,17 +1253,17 @@
       <c r="W14" s="9"/>
       <c r="X14" s="14"/>
     </row>
-    <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="30" t="s">
+    <row r="15" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="40">
         <v>1</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="40">
         <v>1</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="40">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -1283,11 +1286,11 @@
       <c r="W15" s="10"/>
       <c r="X15" s="15"/>
     </row>
-    <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="30"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+    <row r="16" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="42"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1307,17 +1310,17 @@
       <c r="W16" s="9"/>
       <c r="X16" s="14"/>
     </row>
-    <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="30" t="s">
+    <row r="17" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="40">
         <v>1</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="40">
         <v>1</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="40">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>0</v>
       </c>
@@ -1340,11 +1343,11 @@
       <c r="W17" s="8"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="30"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+    <row r="18" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1364,17 +1367,17 @@
       <c r="W18" s="8"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="30" t="s">
+    <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="38">
         <v>2</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="38">
         <v>2</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="38">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
         <v>0</v>
       </c>
@@ -1396,11 +1399,11 @@
       <c r="W19" s="10"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="30"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+    <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="42"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1420,7 +1423,7 @@
       <c r="W20" s="8"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1446,17 +1449,17 @@
       <c r="W21" s="11"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="38">
         <v>1</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="38">
         <v>1</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="38">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>0</v>
       </c>
@@ -1479,11 +1482,11 @@
       <c r="W22" s="8"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="30"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
+    <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="42"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1503,17 +1506,17 @@
       <c r="W23" s="9"/>
       <c r="X23" s="14"/>
     </row>
-    <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="30" t="s">
+    <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="38">
         <v>1</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="38">
         <v>1</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="38">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>0</v>
       </c>
@@ -1536,11 +1539,11 @@
       <c r="W24" s="8"/>
       <c r="X24" s="13"/>
     </row>
-    <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="30"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
+    <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="42"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1560,17 +1563,17 @@
       <c r="W25" s="9"/>
       <c r="X25" s="14"/>
     </row>
-    <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="30" t="s">
+    <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="38">
         <v>4</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="38">
         <v>3</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="38">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>1</v>
       </c>
@@ -1592,11 +1595,11 @@
       <c r="W26" s="10"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="30"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+    <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="42"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1616,17 +1619,19 @@
       <c r="W27" s="9"/>
       <c r="X27" s="14"/>
     </row>
-    <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="30" t="s">
+    <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="31">
+      <c r="D28" s="38">
         <v>4</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31">
+      <c r="E28" s="38">
+        <v>4</v>
+      </c>
+      <c r="F28" s="38">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1647,11 +1652,11 @@
       <c r="W28" s="10"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="30"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
+    <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="42"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1659,8 +1664,8 @@
       <c r="K29" s="9"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="9"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
@@ -1671,17 +1676,17 @@
       <c r="W29" s="9"/>
       <c r="X29" s="14"/>
     </row>
-    <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="30" t="s">
+    <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="38">
         <v>4</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -1702,11 +1707,11 @@
       <c r="W30" s="10"/>
       <c r="X30" s="15"/>
     </row>
-    <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="30"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
+    <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="42"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1726,7 +1731,7 @@
       <c r="W31" s="8"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1752,17 +1757,17 @@
       <c r="W32" s="11"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="30" t="s">
+    <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="38">
         <v>2</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31">
+      <c r="E33" s="38"/>
+      <c r="F33" s="38">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1783,11 +1788,11 @@
       <c r="W33" s="8"/>
       <c r="X33" s="13"/>
     </row>
-    <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="30"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
+    <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="42"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1807,17 +1812,17 @@
       <c r="W34" s="9"/>
       <c r="X34" s="14"/>
     </row>
-    <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="30" t="s">
+    <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="38">
         <v>4</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31">
+      <c r="E35" s="38"/>
+      <c r="F35" s="38">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1838,11 +1843,11 @@
       <c r="W35" s="10"/>
       <c r="X35" s="15"/>
     </row>
-    <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="30"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
+    <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="42"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1862,17 +1867,17 @@
       <c r="W36" s="9"/>
       <c r="X36" s="14"/>
     </row>
-    <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="30" t="s">
+    <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="31">
+      <c r="D37" s="38">
         <v>2</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31">
+      <c r="E37" s="38"/>
+      <c r="F37" s="38">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1893,11 +1898,11 @@
       <c r="W37" s="10"/>
       <c r="X37" s="15"/>
     </row>
-    <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="30"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+    <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="42"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1917,17 +1922,17 @@
       <c r="W38" s="9"/>
       <c r="X38" s="14"/>
     </row>
-    <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="30" t="s">
+    <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="31">
+      <c r="D39" s="38">
         <v>8</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31">
+      <c r="E39" s="38"/>
+      <c r="F39" s="38">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1948,11 +1953,11 @@
       <c r="W39" s="10"/>
       <c r="X39" s="15"/>
     </row>
-    <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="30"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+    <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="42"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1972,17 +1977,17 @@
       <c r="W40" s="9"/>
       <c r="X40" s="14"/>
     </row>
-    <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="30" t="s">
+    <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="38">
         <v>16</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31">
+      <c r="E41" s="38"/>
+      <c r="F41" s="38">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2003,11 +2008,11 @@
       <c r="W41" s="10"/>
       <c r="X41" s="15"/>
     </row>
-    <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="30"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+    <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="42"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2027,17 +2032,17 @@
       <c r="W42" s="9"/>
       <c r="X42" s="14"/>
     </row>
-    <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="30" t="s">
+    <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="38">
         <v>4</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31">
+      <c r="E43" s="38"/>
+      <c r="F43" s="38">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2058,11 +2063,11 @@
       <c r="W43" s="10"/>
       <c r="X43" s="15"/>
     </row>
-    <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="30"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
+    <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="42"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2082,17 +2087,17 @@
       <c r="W44" s="9"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="30" t="s">
+    <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="38">
         <v>4</v>
       </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31">
+      <c r="E45" s="38"/>
+      <c r="F45" s="38">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2113,11 +2118,11 @@
       <c r="W45" s="10"/>
       <c r="X45" s="15"/>
     </row>
-    <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="30"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
+    <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="42"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2137,17 +2142,17 @@
       <c r="W46" s="9"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="30" t="s">
+    <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="31">
+      <c r="D47" s="38">
         <v>4</v>
       </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31">
+      <c r="E47" s="38"/>
+      <c r="F47" s="38">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2168,11 +2173,11 @@
       <c r="W47" s="10"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="30"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
+    <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="42"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2192,17 +2197,17 @@
       <c r="W48" s="9"/>
       <c r="X48" s="14"/>
     </row>
-    <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="30" t="s">
+    <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="31">
+      <c r="D49" s="38">
         <v>2</v>
       </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31">
+      <c r="E49" s="38"/>
+      <c r="F49" s="38">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2223,11 +2228,11 @@
       <c r="W49" s="17"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="30"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
+    <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="42"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2247,17 +2252,17 @@
       <c r="W50" s="9"/>
       <c r="X50" s="14"/>
     </row>
-    <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="30" t="s">
+    <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="31">
+      <c r="D51" s="38">
         <v>8</v>
       </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31">
+      <c r="E51" s="38"/>
+      <c r="F51" s="38">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2278,11 +2283,11 @@
       <c r="W51" s="17"/>
       <c r="X51" s="18"/>
     </row>
-    <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="30"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
+    <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="42"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2302,7 +2307,7 @@
       <c r="W52" s="8"/>
       <c r="X52" s="13"/>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2328,7 +2333,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C55" s="6" t="s">
         <v>15</v>
       </c>
@@ -2338,63 +2343,79 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="36">
         <f>D55-E56</f>
-        <v>63</v>
-      </c>
-      <c r="E57" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="E57" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="M2:M5"/>
-    <mergeCell ref="U2:U5"/>
-    <mergeCell ref="L2:L5"/>
-    <mergeCell ref="K2:K5"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="X2:X5"/>
-    <mergeCell ref="W2:W5"/>
-    <mergeCell ref="V2:V5"/>
-    <mergeCell ref="T2:T5"/>
-    <mergeCell ref="S2:S5"/>
-    <mergeCell ref="R2:R5"/>
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="P2:P5"/>
-    <mergeCell ref="O2:O5"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="E30:E31"/>
@@ -2419,57 +2440,41 @@
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="E47:E48"/>
     <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="X2:X5"/>
+    <mergeCell ref="W2:W5"/>
+    <mergeCell ref="V2:V5"/>
+    <mergeCell ref="T2:T5"/>
+    <mergeCell ref="S2:S5"/>
+    <mergeCell ref="R2:R5"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="P2:P5"/>
+    <mergeCell ref="O2:O5"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="M2:M5"/>
+    <mergeCell ref="U2:U5"/>
+    <mergeCell ref="L2:L5"/>
+    <mergeCell ref="K2:K5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2478,21 +2483,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100C9F4249773A24249BE9B3F9411B0C18E" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="908aab9b8dae649c95f0c610c75bf370">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b1c1be76-b8f0-4a5d-8f83-f5e69c993518" xmlns:ns3="55687998-474e-4d50-81ff-7419a1059b69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="93a8bac063dcadd72e577fd6b72d2684" ns2:_="" ns3:_="">
     <xsd:import namespace="b1c1be76-b8f0-4a5d-8f83-f5e69c993518"/>
@@ -2703,24 +2693,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{722931B3-5BF4-4EBD-A6E8-DCBD3D14791B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2737,4 +2725,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABA38E7-5052-47C2-BA11-971BBAB570A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52462483-73BF-44A1-BF39-D585878972EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81D8E1D-9D2D-4598-B74D-40F2F853BB6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCAB9A-327C-4F7C-B14A-FEDC1783A07C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -507,6 +507,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -554,9 +557,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,165 +841,165 @@
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:E31"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="4.5703125" customWidth="1"/>
-    <col min="7" max="24" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" customWidth="1"/>
+    <col min="2" max="2" width="3.453125" customWidth="1"/>
+    <col min="3" max="3" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="4.54296875" customWidth="1"/>
+    <col min="7" max="24" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="3:24" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-    </row>
-    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-    </row>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-    </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,17 +1025,17 @@
       <c r="W6" s="2"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="42" t="s">
+    <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="39">
         <v>3</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="39">
         <v>3</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="39">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1058,11 +1058,11 @@
       <c r="W7" s="8"/>
       <c r="X7" s="13"/>
     </row>
-    <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="42"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+    <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="43"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1082,17 +1082,17 @@
       <c r="W8" s="9"/>
       <c r="X8" s="14"/>
     </row>
-    <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="42" t="s">
+    <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="39">
         <v>3</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="39">
         <v>3</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="39">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1115,11 +1115,11 @@
       <c r="W9" s="10"/>
       <c r="X9" s="15"/>
     </row>
-    <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="42"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
+    <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="43"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1139,17 +1139,17 @@
       <c r="W10" s="9"/>
       <c r="X10" s="14"/>
     </row>
-    <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="43" t="s">
+    <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="41">
         <v>1</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="41">
         <v>1</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="41">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1172,11 +1172,11 @@
       <c r="W11" s="10"/>
       <c r="X11" s="15"/>
     </row>
-    <row r="12" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="44"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+    <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="45"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1196,17 +1196,17 @@
       <c r="W12" s="9"/>
       <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="42" t="s">
+    <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D13" s="41">
         <v>1</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="41">
         <v>1</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="41">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1229,11 +1229,11 @@
       <c r="W13" s="10"/>
       <c r="X13" s="15"/>
     </row>
-    <row r="14" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="42"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
+    <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="43"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1253,17 +1253,17 @@
       <c r="W14" s="9"/>
       <c r="X14" s="14"/>
     </row>
-    <row r="15" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="42" t="s">
+    <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="41">
         <v>1</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="41">
         <v>1</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="41">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -1286,11 +1286,11 @@
       <c r="W15" s="10"/>
       <c r="X15" s="15"/>
     </row>
-    <row r="16" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="42"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
+    <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1310,17 +1310,17 @@
       <c r="W16" s="9"/>
       <c r="X16" s="14"/>
     </row>
-    <row r="17" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="42" t="s">
+    <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="41">
         <v>1</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="41">
         <v>1</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="41">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>0</v>
       </c>
@@ -1343,11 +1343,11 @@
       <c r="W17" s="8"/>
       <c r="X17" s="13"/>
     </row>
-    <row r="18" spans="3:24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+    <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="43"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1367,17 +1367,17 @@
       <c r="W18" s="8"/>
       <c r="X18" s="13"/>
     </row>
-    <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="42" t="s">
+    <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="39">
         <v>2</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="39">
         <v>2</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="39">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
         <v>0</v>
       </c>
@@ -1399,11 +1399,11 @@
       <c r="W19" s="10"/>
       <c r="X19" s="15"/>
     </row>
-    <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="42"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
+    <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="43"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1423,7 +1423,7 @@
       <c r="W20" s="8"/>
       <c r="X20" s="13"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C21" s="1" t="s">
         <v>12</v>
       </c>
@@ -1449,17 +1449,17 @@
       <c r="W21" s="11"/>
       <c r="X21" s="12"/>
     </row>
-    <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="42" t="s">
+    <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="39">
         <v>1</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="39">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>0</v>
       </c>
@@ -1482,11 +1482,11 @@
       <c r="W22" s="8"/>
       <c r="X22" s="13"/>
     </row>
-    <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="42"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
+    <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="43"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1506,17 +1506,17 @@
       <c r="W23" s="9"/>
       <c r="X23" s="14"/>
     </row>
-    <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="42" t="s">
+    <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="39">
         <v>1</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="39">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>0</v>
       </c>
@@ -1539,11 +1539,11 @@
       <c r="W24" s="8"/>
       <c r="X24" s="13"/>
     </row>
-    <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="42"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
+    <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="43"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1563,17 +1563,17 @@
       <c r="W25" s="9"/>
       <c r="X25" s="14"/>
     </row>
-    <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="42" t="s">
+    <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="39">
         <v>4</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="39">
         <v>3</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="39">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>1</v>
       </c>
@@ -1595,11 +1595,11 @@
       <c r="W26" s="10"/>
       <c r="X26" s="15"/>
     </row>
-    <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="42"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
+    <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="43"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1619,17 +1619,17 @@
       <c r="W27" s="9"/>
       <c r="X27" s="14"/>
     </row>
-    <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="42" t="s">
+    <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="39">
         <v>4</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="39">
         <v>4</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="39">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
         <v>1</v>
       </c>
@@ -1652,11 +1652,11 @@
       <c r="W28" s="10"/>
       <c r="X28" s="15"/>
     </row>
-    <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="42"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+    <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="43"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1664,7 +1664,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="46"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="19"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -1676,17 +1676,19 @@
       <c r="W29" s="9"/>
       <c r="X29" s="14"/>
     </row>
-    <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="42" t="s">
+    <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="39">
         <v>4</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38">
+      <c r="E30" s="39">
+        <v>6</v>
+      </c>
+      <c r="F30" s="39">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -1707,11 +1709,11 @@
       <c r="W30" s="10"/>
       <c r="X30" s="15"/>
     </row>
-    <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="42"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+    <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="43"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1720,8 +1722,8 @@
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
       <c r="N31" s="24"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -1731,7 +1733,7 @@
       <c r="W31" s="8"/>
       <c r="X31" s="13"/>
     </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C32" s="1" t="s">
         <v>13</v>
       </c>
@@ -1757,17 +1759,17 @@
       <c r="W32" s="11"/>
       <c r="X32" s="12"/>
     </row>
-    <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="42" t="s">
+    <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="39">
         <v>2</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38">
+      <c r="E33" s="39"/>
+      <c r="F33" s="39">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1788,11 +1790,11 @@
       <c r="W33" s="8"/>
       <c r="X33" s="13"/>
     </row>
-    <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="42"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
+    <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="43"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1812,17 +1814,17 @@
       <c r="W34" s="9"/>
       <c r="X34" s="14"/>
     </row>
-    <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="42" t="s">
+    <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="39">
         <v>4</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38">
+      <c r="E35" s="39"/>
+      <c r="F35" s="39">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1843,11 +1845,11 @@
       <c r="W35" s="10"/>
       <c r="X35" s="15"/>
     </row>
-    <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="42"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
+    <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="43"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1867,17 +1869,17 @@
       <c r="W36" s="9"/>
       <c r="X36" s="14"/>
     </row>
-    <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="42" t="s">
+    <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="39">
         <v>2</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38">
+      <c r="E37" s="39"/>
+      <c r="F37" s="39">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1898,11 +1900,11 @@
       <c r="W37" s="10"/>
       <c r="X37" s="15"/>
     </row>
-    <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="42"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
+    <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="43"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1922,17 +1924,17 @@
       <c r="W38" s="9"/>
       <c r="X38" s="14"/>
     </row>
-    <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="42" t="s">
+    <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="39">
         <v>8</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38">
+      <c r="E39" s="39"/>
+      <c r="F39" s="39">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1953,11 +1955,11 @@
       <c r="W39" s="10"/>
       <c r="X39" s="15"/>
     </row>
-    <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="42"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
+    <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="43"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1977,17 +1979,17 @@
       <c r="W40" s="9"/>
       <c r="X40" s="14"/>
     </row>
-    <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="42" t="s">
+    <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="39">
         <v>16</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38">
+      <c r="E41" s="39"/>
+      <c r="F41" s="39">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2008,11 +2010,11 @@
       <c r="W41" s="10"/>
       <c r="X41" s="15"/>
     </row>
-    <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="42"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+    <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C42" s="43"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2032,17 +2034,17 @@
       <c r="W42" s="9"/>
       <c r="X42" s="14"/>
     </row>
-    <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="42" t="s">
+    <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="39">
         <v>4</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38">
+      <c r="E43" s="39"/>
+      <c r="F43" s="39">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2063,11 +2065,11 @@
       <c r="W43" s="10"/>
       <c r="X43" s="15"/>
     </row>
-    <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="42"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
+    <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="43"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2087,17 +2089,17 @@
       <c r="W44" s="9"/>
       <c r="X44" s="14"/>
     </row>
-    <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="42" t="s">
+    <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="39">
         <v>4</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38">
+      <c r="E45" s="39"/>
+      <c r="F45" s="39">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2118,11 +2120,11 @@
       <c r="W45" s="10"/>
       <c r="X45" s="15"/>
     </row>
-    <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="42"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
+    <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="43"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2142,17 +2144,17 @@
       <c r="W46" s="9"/>
       <c r="X46" s="14"/>
     </row>
-    <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="42" t="s">
+    <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="39">
         <v>4</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38">
+      <c r="E47" s="39"/>
+      <c r="F47" s="39">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2173,11 +2175,11 @@
       <c r="W47" s="10"/>
       <c r="X47" s="15"/>
     </row>
-    <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="42"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
+    <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="43"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2197,17 +2199,17 @@
       <c r="W48" s="9"/>
       <c r="X48" s="14"/>
     </row>
-    <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="42" t="s">
+    <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="39">
         <v>2</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38">
+      <c r="E49" s="39"/>
+      <c r="F49" s="39">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2228,11 +2230,11 @@
       <c r="W49" s="17"/>
       <c r="X49" s="15"/>
     </row>
-    <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="42"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
+    <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="43"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2252,17 +2254,17 @@
       <c r="W50" s="9"/>
       <c r="X50" s="14"/>
     </row>
-    <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="42" t="s">
+    <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="39">
         <v>8</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38">
+      <c r="E51" s="39"/>
+      <c r="F51" s="39">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2283,11 +2285,11 @@
       <c r="W51" s="17"/>
       <c r="X51" s="18"/>
     </row>
-    <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="42"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
+    <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="43"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2307,7 +2309,7 @@
       <c r="W52" s="8"/>
       <c r="X52" s="13"/>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
         <v>53</v>
       </c>
@@ -2333,7 +2335,7 @@
       <c r="W53" s="2"/>
       <c r="X53" s="3"/>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C55" s="6" t="s">
         <v>15</v>
       </c>
@@ -2343,25 +2345,25 @@
       </c>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C56" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="36">
+      <c r="D57" s="37">
         <f>D55-E56</f>
-        <v>59</v>
-      </c>
-      <c r="E57" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="E57" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="110">

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DCAB9A-327C-4F7C-B14A-FEDC1783A07C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4235D20-BB9C-41D3-8D61-DA41156746CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +255,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -510,6 +517,9 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -557,6 +567,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,7 +854,7 @@
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -857,67 +870,67 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="T2" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -925,79 +938,79 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1026,16 +1039,16 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="40">
         <v>3</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="40">
         <v>3</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="40">
         <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
         <v>0</v>
       </c>
@@ -1059,10 +1072,10 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="43"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1083,16 +1096,16 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="40">
         <v>3</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="40">
         <v>3</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="40">
         <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
         <v>0</v>
       </c>
@@ -1116,10 +1129,10 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="43"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1140,16 +1153,16 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="42">
         <v>1</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="42">
         <v>1</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="42">
         <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
         <v>0</v>
       </c>
@@ -1173,10 +1186,10 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="45"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
       <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1197,16 +1210,16 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="42">
         <v>1</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="42">
         <v>1</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="42">
         <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
         <v>0</v>
       </c>
@@ -1230,10 +1243,10 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="43"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1254,16 +1267,16 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="42">
         <v>1</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="42">
         <v>1</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="42">
         <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
         <v>0</v>
       </c>
@@ -1287,10 +1300,10 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="43"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1311,16 +1324,16 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="42">
         <v>1</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="42">
         <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
         <v>0</v>
       </c>
@@ -1344,10 +1357,10 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="43"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1368,16 +1381,16 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="40">
         <v>2</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="40">
         <v>2</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="40">
         <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
         <v>0</v>
       </c>
@@ -1387,6 +1400,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
       <c r="L19" s="17"/>
+      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1400,17 +1414,17 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="43"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="8"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -1450,16 +1464,16 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="40">
         <v>1</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="40">
         <v>1</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="40">
         <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
         <v>0</v>
       </c>
@@ -1483,10 +1497,10 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="43"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1507,16 +1521,16 @@
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="40">
         <v>1</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="40">
         <v>1</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="40">
         <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
         <v>0</v>
       </c>
@@ -1540,10 +1554,10 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="43"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1564,16 +1578,16 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="40">
         <v>4</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="40">
         <v>3</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="40">
         <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
         <v>1</v>
       </c>
@@ -1596,10 +1610,10 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="43"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1620,16 +1634,16 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="40">
         <v>4</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="40">
         <v>4</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="40">
         <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
         <v>1</v>
       </c>
@@ -1653,10 +1667,10 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="43"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1677,16 +1691,16 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="40">
         <v>4</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="40">
         <v>6</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="40">
         <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
         <v>-1</v>
       </c>
@@ -1710,10 +1724,10 @@
       <c r="X30" s="15"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="43"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1760,16 +1774,18 @@
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="40">
         <v>2</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39">
+      <c r="E33" s="40">
+        <v>4</v>
+      </c>
+      <c r="F33" s="40">
         <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1791,10 +1807,10 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="43"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1804,8 +1820,8 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
@@ -1815,16 +1831,18 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="40">
         <v>4</v>
       </c>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39">
+      <c r="E35" s="40">
+        <v>4</v>
+      </c>
+      <c r="F35" s="40">
         <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>5</v>
+        <v>-3</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1846,10 +1864,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="43"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1859,8 +1877,8 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="19"/>
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -1870,16 +1888,18 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="40">
         <v>2</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39">
+      <c r="E37" s="40">
+        <v>2</v>
+      </c>
+      <c r="F37" s="40">
         <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1901,10 +1921,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="43"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1915,7 +1935,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
+      <c r="Q38" s="48"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -1925,16 +1945,18 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="40">
         <v>8</v>
       </c>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39">
+      <c r="E39" s="40">
+        <v>11</v>
+      </c>
+      <c r="F39" s="40">
         <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>15</v>
+        <v>-6</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1956,10 +1978,10 @@
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="43"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1971,8 +1993,8 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="48"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -1980,16 +2002,18 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="40">
         <v>16</v>
       </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39">
+      <c r="E41" s="40">
+        <v>18</v>
+      </c>
+      <c r="F41" s="40">
         <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>31</v>
+        <v>-8</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2011,10 +2035,10 @@
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="43"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2028,23 +2052,25 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="19"/>
       <c r="W42" s="9"/>
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="40">
         <v>4</v>
       </c>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39">
+      <c r="E43" s="40">
+        <v>3</v>
+      </c>
+      <c r="F43" s="40">
         <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>35</v>
+        <v>-7</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2066,10 +2092,10 @@
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="43"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2085,21 +2111,21 @@
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
+      <c r="V44" s="19"/>
       <c r="W44" s="9"/>
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="40">
         <v>4</v>
       </c>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39">
+      <c r="E45" s="40"/>
+      <c r="F45" s="40">
         <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>39</v>
+        <v>-3</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2121,10 +2147,10 @@
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="43"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2145,16 +2171,18 @@
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>4</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39">
+      <c r="E47" s="40">
+        <v>4</v>
+      </c>
+      <c r="F47" s="40">
         <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>43</v>
+        <v>-3</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2176,10 +2204,10 @@
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="43"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2194,22 +2222,22 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
+      <c r="U48" s="19"/>
       <c r="V48" s="9"/>
       <c r="W48" s="9"/>
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="40">
         <v>2</v>
       </c>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39">
+      <c r="E49" s="40"/>
+      <c r="F49" s="40">
         <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>45</v>
+        <v>-1</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2231,10 +2259,10 @@
       <c r="X49" s="15"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="43"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2255,16 +2283,16 @@
       <c r="X50" s="14"/>
     </row>
     <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="40">
         <v>8</v>
       </c>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39">
+      <c r="E51" s="40"/>
+      <c r="F51" s="40">
         <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2286,10 +2314,10 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="43"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2352,18 +2380,18 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="38">
         <f>D55-E56</f>
-        <v>53</v>
-      </c>
-      <c r="E57" s="38"/>
+        <v>7</v>
+      </c>
+      <c r="E57" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="110">

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4235D20-BB9C-41D3-8D61-DA41156746CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3731A4A-0D5D-453F-A2A4-F136790EA709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,7 +854,7 @@
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB48" sqref="AB48"/>
+      <selection activeCell="V46" sqref="V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3731A4A-0D5D-453F-A2A4-F136790EA709}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4C0C4-608A-4898-A8A3-23B6E1416D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -520,6 +520,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
@@ -568,7 +571,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +857,7 @@
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+      <selection activeCell="E51" sqref="E51:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,67 +873,67 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="32" t="s">
+      <c r="N2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="T2" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="U2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="V2" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="34" t="s">
+      <c r="W2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="34" t="s">
+      <c r="X2" s="35" t="s">
         <v>22</v>
       </c>
     </row>
@@ -938,79 +941,79 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="35"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1039,17 +1042,17 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="41">
         <v>3</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="41">
         <v>3</v>
       </c>
-      <c r="F7" s="40">
-        <f>SUM($D$7:D7)-SUM($E$7:E7)</f>
+      <c r="F7" s="41">
+        <f>SUM(D7:D7)-SUM(E7:E7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="16"/>
@@ -1072,10 +1075,10 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="44"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1096,17 +1099,17 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="41">
         <v>3</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="41">
         <v>3</v>
       </c>
-      <c r="F9" s="40">
-        <f>SUM($D$7:D9)-SUM($E$7:E9)</f>
+      <c r="F9" s="41">
+        <f t="shared" ref="F9" si="0">SUM(D9:D9)-SUM(E9:E9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="10"/>
@@ -1129,10 +1132,10 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="44"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1153,17 +1156,17 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="43">
         <v>1</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="43">
         <v>1</v>
       </c>
-      <c r="F11" s="42">
-        <f>SUM($D$7:D11)-SUM($E$7:E11)</f>
+      <c r="F11" s="41">
+        <f t="shared" ref="F11" si="1">SUM(D11:D11)-SUM(E11:E11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="17"/>
@@ -1186,10 +1189,10 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="46"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1210,17 +1213,17 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="43">
         <v>1</v>
       </c>
-      <c r="E13" s="42">
+      <c r="E13" s="43">
         <v>1</v>
       </c>
-      <c r="F13" s="42">
-        <f>SUM($D$7:D13)-SUM($E$7:E13)</f>
+      <c r="F13" s="41">
+        <f t="shared" ref="F13" si="2">SUM(D13:D13)-SUM(E13:E13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="10"/>
@@ -1243,10 +1246,10 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="44"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1267,17 +1270,17 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="43">
         <v>1</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="43">
         <v>1</v>
       </c>
-      <c r="F15" s="42">
-        <f>SUM($D$7:D15)-SUM($E$7:E15)</f>
+      <c r="F15" s="41">
+        <f t="shared" ref="F15" si="3">SUM(D15:D15)-SUM(E15:E15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="10"/>
@@ -1300,10 +1303,10 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="44"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1324,17 +1327,17 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="43">
         <v>1</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="43">
         <v>1</v>
       </c>
-      <c r="F17" s="42">
-        <f>SUM($D$7:D17)-SUM($E$7:E17)</f>
+      <c r="F17" s="41">
+        <f t="shared" ref="F17" si="4">SUM(D17:D17)-SUM(E17:E17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="10"/>
@@ -1357,10 +1360,10 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="44"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1381,17 +1384,17 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="41">
         <v>2</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="41">
         <v>2</v>
       </c>
-      <c r="F19" s="40">
-        <f>SUM($D$7:D19)-SUM($E$7:E19)</f>
+      <c r="F19" s="41">
+        <f t="shared" ref="F19" si="5">SUM(D19:D19)-SUM(E19:E19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="10"/>
@@ -1414,10 +1417,10 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="44"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1464,17 +1467,17 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22" s="41">
         <v>1</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="41">
         <v>1</v>
       </c>
-      <c r="F22" s="40">
-        <f>SUM($D$7:D22)-SUM($E$7:E22)</f>
+      <c r="F22" s="41">
+        <f t="shared" ref="F22:F30" si="6">SUM(D22:D22)-SUM(E22:E22)</f>
         <v>0</v>
       </c>
       <c r="G22" s="8"/>
@@ -1497,10 +1500,10 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="44"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1521,17 +1524,17 @@
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="41">
         <v>1</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="41">
         <v>1</v>
       </c>
-      <c r="F24" s="40">
-        <f>SUM($D$7:D24)-SUM($E$7:E24)</f>
+      <c r="F24" s="41">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G24" s="8"/>
@@ -1554,10 +1557,10 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="44"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1578,17 +1581,17 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="40">
+      <c r="D26" s="41">
         <v>4</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="41">
         <v>3</v>
       </c>
-      <c r="F26" s="40">
-        <f>SUM($D$7:D26)-SUM($E$7:E26)</f>
+      <c r="F26" s="41">
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G26" s="10"/>
@@ -1610,10 +1613,10 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="44"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1634,18 +1637,18 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="40">
+      <c r="D28" s="41">
         <v>4</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="41">
         <v>4</v>
       </c>
-      <c r="F28" s="40">
-        <f>SUM($D$7:D28)-SUM($E$7:E28)</f>
-        <v>1</v>
+      <c r="F28" s="41">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1667,10 +1670,10 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="44"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1691,18 +1694,18 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="40">
+      <c r="D30" s="41">
         <v>4</v>
       </c>
-      <c r="E30" s="40">
+      <c r="E30" s="41">
         <v>6</v>
       </c>
-      <c r="F30" s="40">
-        <f>SUM($D$7:D30)-SUM($E$7:E30)</f>
-        <v>-1</v>
+      <c r="F30" s="41">
+        <f t="shared" si="6"/>
+        <v>-2</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
@@ -1724,10 +1727,10 @@
       <c r="X30" s="15"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="44"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1774,18 +1777,18 @@
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="41">
         <v>2</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="41">
         <v>4</v>
       </c>
-      <c r="F33" s="40">
-        <f>SUM($D$7:D33)-SUM($E$7:E33)</f>
-        <v>-3</v>
+      <c r="F33" s="41">
+        <f t="shared" ref="F33:F51" si="7">SUM(D33:D33)-SUM(E33:E33)</f>
+        <v>-2</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -1807,10 +1810,10 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="44"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1831,18 +1834,18 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="41">
         <v>4</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="41">
         <v>4</v>
       </c>
-      <c r="F35" s="40">
-        <f>SUM($D$7:D35)-SUM($E$7:E35)</f>
-        <v>-3</v>
+      <c r="F35" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
@@ -1864,10 +1867,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="44"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1888,18 +1891,18 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="44" t="s">
+      <c r="C37" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="41">
         <v>2</v>
       </c>
-      <c r="E37" s="40">
+      <c r="E37" s="41">
         <v>2</v>
       </c>
-      <c r="F37" s="40">
-        <f>SUM($D$7:D37)-SUM($E$7:E37)</f>
-        <v>-3</v>
+      <c r="F37" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
@@ -1921,10 +1924,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="44"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1935,7 +1938,7 @@
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
-      <c r="Q38" s="48"/>
+      <c r="Q38" s="32"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -1945,18 +1948,18 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="41">
         <v>8</v>
       </c>
-      <c r="E39" s="40">
+      <c r="E39" s="41">
         <v>11</v>
       </c>
-      <c r="F39" s="40">
-        <f>SUM($D$7:D39)-SUM($E$7:E39)</f>
-        <v>-6</v>
+      <c r="F39" s="41">
+        <f t="shared" si="7"/>
+        <v>-3</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
@@ -1978,10 +1981,10 @@
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="44"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1993,8 +1996,8 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
-      <c r="R40" s="48"/>
-      <c r="S40" s="48"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -2002,18 +2005,18 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="41">
         <v>16</v>
       </c>
-      <c r="E41" s="40">
+      <c r="E41" s="41">
         <v>18</v>
       </c>
-      <c r="F41" s="40">
-        <f>SUM($D$7:D41)-SUM($E$7:E41)</f>
-        <v>-8</v>
+      <c r="F41" s="41">
+        <f t="shared" si="7"/>
+        <v>-2</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
@@ -2035,10 +2038,10 @@
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="44"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2052,25 +2055,25 @@
       <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
       <c r="V42" s="19"/>
       <c r="W42" s="9"/>
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="41">
         <v>4</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="41">
         <v>3</v>
       </c>
-      <c r="F43" s="40">
-        <f>SUM($D$7:D43)-SUM($E$7:E43)</f>
-        <v>-7</v>
+      <c r="F43" s="41">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
@@ -2092,10 +2095,10 @@
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="44"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2116,16 +2119,18 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="41">
         <v>4</v>
       </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40">
-        <f>SUM($D$7:D45)-SUM($E$7:E45)</f>
-        <v>-3</v>
+      <c r="E45" s="41">
+        <v>3</v>
+      </c>
+      <c r="F45" s="41">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
@@ -2147,10 +2152,10 @@
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="44"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2166,23 +2171,23 @@
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="31"/>
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="41">
         <v>4</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="41">
         <v>4</v>
       </c>
-      <c r="F47" s="40">
-        <f>SUM($D$7:D47)-SUM($E$7:E47)</f>
-        <v>-3</v>
+      <c r="F47" s="41">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
@@ -2204,10 +2209,10 @@
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="44"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2220,7 +2225,7 @@
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
+      <c r="S48" s="19"/>
       <c r="T48" s="9"/>
       <c r="U48" s="19"/>
       <c r="V48" s="9"/>
@@ -2228,16 +2233,18 @@
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="41">
         <v>2</v>
       </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40">
-        <f>SUM($D$7:D49)-SUM($E$7:E49)</f>
-        <v>-1</v>
+      <c r="E49" s="41">
+        <v>1</v>
+      </c>
+      <c r="F49" s="41">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
@@ -2259,10 +2266,10 @@
       <c r="X49" s="15"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="44"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2279,20 +2286,20 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="W50" s="19"/>
       <c r="X50" s="14"/>
     </row>
     <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="40">
+      <c r="D51" s="41">
         <v>8</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40">
-        <f>SUM($D$7:D51)-SUM($E$7:E51)</f>
-        <v>7</v>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41">
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2314,10 +2321,10 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="44"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2334,8 +2341,8 @@
       <c r="T52" s="8"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="13"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="49"/>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
@@ -2380,18 +2387,18 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="39">
         <f>D55-E56</f>
-        <v>7</v>
-      </c>
-      <c r="E57" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E57" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="110">

--- a/documentation/Zeitplan.xlsx
+++ b/documentation/Zeitplan.xlsx
@@ -3,13 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC4C0C4-608A-4898-A8A3-23B6E1416D53}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEB7281-F653-4017-BE7B-A89CA9F3B8D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="480" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$X$57</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -210,7 +213,7 @@
     <t>2.5 Testkonzept erstellen</t>
   </si>
   <si>
-    <t>4. Einführung (Nicht Teil der Aufgabe)</t>
+    <t>4. Einführung (Nicht Teil des Projekts)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -523,23 +526,8 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,8 +559,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,10 +845,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="C2:X57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51:E52"/>
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -873,67 +867,67 @@
       <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="35" t="s">
+      <c r="T2" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="35" t="s">
+      <c r="U2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="35" t="s">
+      <c r="W2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="35" t="s">
+      <c r="X2" s="45" t="s">
         <v>22</v>
       </c>
     </row>
@@ -941,79 +935,79 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
-      <c r="W3" s="35"/>
-      <c r="X3" s="35"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="45"/>
+      <c r="U4" s="45"/>
+      <c r="V4" s="45"/>
+      <c r="W4" s="45"/>
+      <c r="X4" s="45"/>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="45"/>
+      <c r="V5" s="45"/>
+      <c r="W5" s="45"/>
+      <c r="X5" s="45"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
@@ -1042,16 +1036,16 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="36">
         <v>3</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="36">
         <v>3</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="36">
         <f>SUM(D7:D7)-SUM(E7:E7)</f>
         <v>0</v>
       </c>
@@ -1075,10 +1069,10 @@
       <c r="X7" s="13"/>
     </row>
     <row r="8" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="45"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="19"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -1099,16 +1093,16 @@
       <c r="X8" s="14"/>
     </row>
     <row r="9" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="36">
         <v>3</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="36">
         <v>3</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="36">
         <f t="shared" ref="F9" si="0">SUM(D9:D9)-SUM(E9:E9)</f>
         <v>0</v>
       </c>
@@ -1132,10 +1126,10 @@
       <c r="X9" s="15"/>
     </row>
     <row r="10" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="45"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -1156,16 +1150,16 @@
       <c r="X10" s="14"/>
     </row>
     <row r="11" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="38">
         <v>1</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="38">
         <v>1</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="36">
         <f t="shared" ref="F11" si="1">SUM(D11:D11)-SUM(E11:E11)</f>
         <v>0</v>
       </c>
@@ -1189,10 +1183,10 @@
       <c r="X11" s="15"/>
     </row>
     <row r="12" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="47"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="19"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -1213,16 +1207,16 @@
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="43">
+      <c r="D13" s="38">
         <v>1</v>
       </c>
-      <c r="E13" s="43">
+      <c r="E13" s="38">
         <v>1</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="36">
         <f t="shared" ref="F13" si="2">SUM(D13:D13)-SUM(E13:E13)</f>
         <v>0</v>
       </c>
@@ -1246,10 +1240,10 @@
       <c r="X13" s="15"/>
     </row>
     <row r="14" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="45"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="42"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="37"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
@@ -1270,16 +1264,16 @@
       <c r="X14" s="14"/>
     </row>
     <row r="15" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="43">
+      <c r="D15" s="38">
         <v>1</v>
       </c>
-      <c r="E15" s="43">
+      <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="36">
         <f t="shared" ref="F15" si="3">SUM(D15:D15)-SUM(E15:E15)</f>
         <v>0</v>
       </c>
@@ -1303,10 +1297,10 @@
       <c r="X15" s="15"/>
     </row>
     <row r="16" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="45"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="42"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -1327,16 +1321,16 @@
       <c r="X16" s="14"/>
     </row>
     <row r="17" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="43">
+      <c r="D17" s="38">
         <v>1</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="36">
         <f t="shared" ref="F17" si="4">SUM(D17:D17)-SUM(E17:E17)</f>
         <v>0</v>
       </c>
@@ -1360,10 +1354,10 @@
       <c r="X17" s="13"/>
     </row>
     <row r="18" spans="3:24" ht="10" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="45"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="42"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="37"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
@@ -1384,16 +1378,16 @@
       <c r="X18" s="13"/>
     </row>
     <row r="19" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="36">
         <v>2</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="36">
         <v>2</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="36">
         <f t="shared" ref="F19" si="5">SUM(D19:D19)-SUM(E19:E19)</f>
         <v>0</v>
       </c>
@@ -1417,10 +1411,10 @@
       <c r="X19" s="15"/>
     </row>
     <row r="20" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="45"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -1467,16 +1461,16 @@
       <c r="X21" s="12"/>
     </row>
     <row r="22" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="36">
         <v>1</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="36">
         <v>1</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="36">
         <f t="shared" ref="F22:F30" si="6">SUM(D22:D22)-SUM(E22:E22)</f>
         <v>0</v>
       </c>
@@ -1500,10 +1494,10 @@
       <c r="X22" s="13"/>
     </row>
     <row r="23" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="45"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
@@ -1524,16 +1518,16 @@
       <c r="X23" s="14"/>
     </row>
     <row r="24" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="36">
         <v>1</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="36">
         <v>1</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1557,10 +1551,10 @@
       <c r="X24" s="13"/>
     </row>
     <row r="25" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C25" s="45"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1581,16 +1575,16 @@
       <c r="X25" s="14"/>
     </row>
     <row r="26" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="36">
         <v>4</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="36">
         <v>3</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="36">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -1613,10 +1607,10 @@
       <c r="X26" s="15"/>
     </row>
     <row r="27" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C27" s="45"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1637,16 +1631,16 @@
       <c r="X27" s="14"/>
     </row>
     <row r="28" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="36">
         <v>4</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="36">
         <v>4</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -1670,10 +1664,10 @@
       <c r="X28" s="15"/>
     </row>
     <row r="29" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="45"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
@@ -1694,16 +1688,16 @@
       <c r="X29" s="14"/>
     </row>
     <row r="30" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="36">
         <v>4</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="36">
         <v>6</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="36">
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
@@ -1727,10 +1721,10 @@
       <c r="X30" s="15"/>
     </row>
     <row r="31" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="45"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -1777,16 +1771,16 @@
       <c r="X32" s="12"/>
     </row>
     <row r="33" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="36">
         <v>2</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="36">
         <v>4</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="36">
         <f t="shared" ref="F33:F51" si="7">SUM(D33:D33)-SUM(E33:E33)</f>
         <v>-2</v>
       </c>
@@ -1810,10 +1804,10 @@
       <c r="X33" s="13"/>
     </row>
     <row r="34" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C34" s="45"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
@@ -1834,16 +1828,16 @@
       <c r="X34" s="14"/>
     </row>
     <row r="35" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="36">
         <v>4</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="36">
         <v>4</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1867,10 +1861,10 @@
       <c r="X35" s="15"/>
     </row>
     <row r="36" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C36" s="45"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
@@ -1891,16 +1885,16 @@
       <c r="X36" s="14"/>
     </row>
     <row r="37" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="36">
         <v>2</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="36">
         <v>2</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1924,10 +1918,10 @@
       <c r="X37" s="15"/>
     </row>
     <row r="38" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C38" s="45"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
@@ -1948,16 +1942,16 @@
       <c r="X38" s="14"/>
     </row>
     <row r="39" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="36">
         <v>8</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="36">
         <v>11</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="36">
         <f t="shared" si="7"/>
         <v>-3</v>
       </c>
@@ -1981,10 +1975,10 @@
       <c r="X39" s="15"/>
     </row>
     <row r="40" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C40" s="45"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -2005,16 +1999,16 @@
       <c r="X40" s="14"/>
     </row>
     <row r="41" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="36">
         <v>16</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="36">
         <v>18</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="36">
         <f t="shared" si="7"/>
         <v>-2</v>
       </c>
@@ -2038,10 +2032,10 @@
       <c r="X41" s="15"/>
     </row>
     <row r="42" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="45"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
@@ -2062,16 +2056,16 @@
       <c r="X42" s="14"/>
     </row>
     <row r="43" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="36">
         <v>4</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="36">
         <v>3</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2095,10 +2089,10 @@
       <c r="X43" s="15"/>
     </row>
     <row r="44" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C44" s="45"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
@@ -2119,16 +2113,16 @@
       <c r="X44" s="14"/>
     </row>
     <row r="45" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="36">
         <v>4</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="36">
         <v>3</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2152,10 +2146,10 @@
       <c r="X45" s="15"/>
     </row>
     <row r="46" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C46" s="45"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
@@ -2176,16 +2170,16 @@
       <c r="X46" s="14"/>
     </row>
     <row r="47" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="36">
         <v>4</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="36">
         <v>4</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2209,10 +2203,10 @@
       <c r="X47" s="15"/>
     </row>
     <row r="48" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="45"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
@@ -2233,16 +2227,16 @@
       <c r="X48" s="14"/>
     </row>
     <row r="49" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="36">
         <v>2</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="36">
         <v>1</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="36">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -2266,10 +2260,10 @@
       <c r="X49" s="15"/>
     </row>
     <row r="50" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="45"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
@@ -2290,16 +2284,18 @@
       <c r="X50" s="14"/>
     </row>
     <row r="51" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="36">
         <v>8</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41">
+      <c r="E51" s="36">
+        <v>6</v>
+      </c>
+      <c r="F51" s="36">
         <f t="shared" si="7"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
@@ -2321,10 +2317,10 @@
       <c r="X51" s="18"/>
     </row>
     <row r="52" spans="3:24" ht="10.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="45"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
@@ -2342,7 +2338,7 @@
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
       <c r="W52" s="20"/>
-      <c r="X52" s="49"/>
+      <c r="X52" s="33"/>
     </row>
     <row r="53" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C53" s="1" t="s">
@@ -2387,18 +2383,18 @@
       <c r="D56" s="6"/>
       <c r="E56" s="7">
         <f>SUM(E7:E52)</f>
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="34">
         <f>D55-E56</f>
-        <v>3</v>
-      </c>
-      <c r="E57" s="40"/>
+        <v>-3</v>
+      </c>
+      <c r="E57" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -2515,7 +2511,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
